--- a/carriers_source_analyses/natural_gas.carrier.xlsx
+++ b/carriers_source_analyses/natural_gas.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23520" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -17,6 +17,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -278,9 +279,6 @@
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
-  </si>
-  <si>
     <t>This sheet contains currency exchange rates. These are automatically updated from exchange rate files in the same folder. This only works if you open this `&lt;carrier name&gt;.xlsx` workbook using the `carrier_manager.xlsm` document.</t>
   </si>
   <si>
@@ -381,6 +379,18 @@
   </si>
   <si>
     <t>ETSource</t>
+  </si>
+  <si>
+    <t>from algeria</t>
+  </si>
+  <si>
+    <t>from netherlands</t>
+  </si>
+  <si>
+    <t>from norway</t>
+  </si>
+  <si>
+    <t>from russia</t>
   </si>
 </sst>
 </file>
@@ -397,12 +407,19 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1021,753 +1038,753 @@
   </borders>
   <cellStyleXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="418">
     <cellStyle name="Excel Built-in Normal" xfId="338"/>
@@ -2198,6 +2215,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2206,14 +2227,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2252,6 +2273,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>165100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3075" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2529,6 +2611,25 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2895,7 +2996,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2904,7 +3005,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2932,13 +3033,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="89"/>
-      <c r="D9" s="152"/>
+      <c r="D9" s="150"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
-      <c r="D10" s="153"/>
+      <c r="D10" s="151"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="7"/>
@@ -2948,7 +3049,7 @@
       <c r="C11" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="153"/>
+      <c r="D11" s="151"/>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
       <c r="A12" s="7"/>
@@ -2956,7 +3057,7 @@
       <c r="C12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="153"/>
+      <c r="D12" s="151"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
       <c r="A13" s="7"/>
@@ -2964,7 +3065,7 @@
       <c r="C13" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="153"/>
+      <c r="D13" s="151"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="7"/>
@@ -2972,13 +3073,13 @@
       <c r="C14" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="151"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
-      <c r="D15" s="153"/>
+      <c r="D15" s="151"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="7"/>
@@ -2988,7 +3089,7 @@
       <c r="C16" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="153"/>
+      <c r="D16" s="151"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="7"/>
@@ -2996,7 +3097,7 @@
       <c r="C17" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="153"/>
+      <c r="D17" s="151"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7"/>
@@ -3004,7 +3105,7 @@
       <c r="C18" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="153"/>
+      <c r="D18" s="151"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7"/>
@@ -3012,7 +3113,7 @@
       <c r="C19" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="153"/>
+      <c r="D19" s="151"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7"/>
@@ -3020,7 +3121,7 @@
       <c r="C20" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="153"/>
+      <c r="D20" s="151"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="7"/>
@@ -3028,7 +3129,7 @@
       <c r="C21" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="153"/>
+      <c r="D21" s="151"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="7"/>
@@ -3036,19 +3137,19 @@
       <c r="C22" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="153"/>
+      <c r="D22" s="151"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="153"/>
+      <c r="D23" s="151"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="154"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3068,7 +3169,7 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3092,28 +3193,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="186" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="190"/>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="192"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3165,7 +3266,7 @@
     </row>
     <row r="9" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="149" t="s">
         <v>70</v>
       </c>
       <c r="D9" s="33"/>
@@ -3206,15 +3307,15 @@
       <c r="D11" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="173">
+      <c r="E11" s="171">
         <f>'Research data'!G7</f>
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="121"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="183" t="s">
-        <v>95</v>
+      <c r="I11" s="181" t="s">
+        <v>94</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -3240,13 +3341,13 @@
     </row>
     <row r="13" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="168" t="s">
-        <v>82</v>
+      <c r="C13" s="166" t="s">
+        <v>81</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="173">
+      <c r="E13" s="171">
         <f>'Research data'!G9</f>
         <v>8.2699999999999994E-4</v>
       </c>
@@ -3303,19 +3404,42 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>25400</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="3075" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>165100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -3337,13 +3461,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3368,30 +3492,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="184" t="s">
+      <c r="B2" s="186" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
       <c r="F3" s="36"/>
       <c r="G3" s="148"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="193" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3461,7 +3583,7 @@
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="32" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
@@ -3473,7 +3595,7 @@
     </row>
     <row r="12" spans="2:10" ht="16" thickBot="1">
       <c r="B12" s="41"/>
-      <c r="C12" s="149" t="s">
+      <c r="C12" s="185" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -3495,7 +3617,7 @@
     </row>
     <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="41"/>
-      <c r="C13" s="150" t="s">
+      <c r="C13" s="185" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -3517,7 +3639,7 @@
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="41"/>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="185" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="24" t="s">
@@ -3539,7 +3661,7 @@
     </row>
     <row r="15" spans="2:10" ht="16" thickBot="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="185" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -3561,7 +3683,7 @@
     </row>
     <row r="16" spans="2:10" ht="16" thickBot="1">
       <c r="B16" s="41"/>
-      <c r="C16" s="150" t="s">
+      <c r="C16" s="185" t="s">
         <v>39</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -3583,7 +3705,7 @@
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1">
       <c r="B17" s="41"/>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="185" t="s">
         <v>44</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -3598,15 +3720,15 @@
         <v>48</v>
       </c>
       <c r="H17" s="37"/>
-      <c r="I17" s="200" t="s">
+      <c r="I17" s="183" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="108"/>
     </row>
     <row r="18" spans="2:10" ht="16" thickBot="1">
       <c r="B18" s="41"/>
-      <c r="C18" s="201" t="s">
-        <v>106</v>
+      <c r="C18" s="185" t="s">
+        <v>105</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>47</v>
@@ -3620,8 +3742,8 @@
         <v>48</v>
       </c>
       <c r="H18" s="37"/>
-      <c r="I18" s="202" t="s">
-        <v>107</v>
+      <c r="I18" s="184" t="s">
+        <v>106</v>
       </c>
       <c r="J18" s="108"/>
     </row>
@@ -3639,7 +3761,7 @@
     <row r="20" spans="2:10" ht="16" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="32" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -3651,7 +3773,7 @@
     </row>
     <row r="21" spans="2:10" ht="16" thickBot="1">
       <c r="B21" s="41"/>
-      <c r="C21" s="149" t="s">
+      <c r="C21" s="185" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -3673,7 +3795,7 @@
     </row>
     <row r="22" spans="2:10" ht="16" thickBot="1">
       <c r="B22" s="41"/>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="185" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="24" t="s">
@@ -3695,7 +3817,7 @@
     </row>
     <row r="23" spans="2:10" ht="16" thickBot="1">
       <c r="B23" s="41"/>
-      <c r="C23" s="150" t="s">
+      <c r="C23" s="185" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -3717,7 +3839,7 @@
     </row>
     <row r="24" spans="2:10" ht="16" thickBot="1">
       <c r="B24" s="41"/>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="185" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="24" t="s">
@@ -3739,7 +3861,7 @@
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="41"/>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="185" t="s">
         <v>39</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -3761,7 +3883,7 @@
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="41"/>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="185" t="s">
         <v>44</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -3776,15 +3898,15 @@
         <v>48</v>
       </c>
       <c r="H26" s="37"/>
-      <c r="I26" s="200" t="s">
+      <c r="I26" s="183" t="s">
         <v>50</v>
       </c>
       <c r="J26" s="108"/>
     </row>
     <row r="27" spans="2:10" ht="16" thickBot="1">
       <c r="B27" s="41"/>
-      <c r="C27" s="201" t="s">
-        <v>106</v>
+      <c r="C27" s="185" t="s">
+        <v>105</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>47</v>
@@ -3797,8 +3919,8 @@
         <v>48</v>
       </c>
       <c r="H27" s="37"/>
-      <c r="I27" s="202" t="s">
-        <v>107</v>
+      <c r="I27" s="184" t="s">
+        <v>106</v>
       </c>
       <c r="J27" s="108"/>
     </row>
@@ -3816,7 +3938,7 @@
     <row r="29" spans="2:10" ht="16" thickBot="1">
       <c r="B29" s="41"/>
       <c r="C29" s="32" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
@@ -3828,7 +3950,7 @@
     </row>
     <row r="30" spans="2:10" ht="16" thickBot="1">
       <c r="B30" s="41"/>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="185" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="24" t="s">
@@ -3850,7 +3972,7 @@
     </row>
     <row r="31" spans="2:10" ht="16" thickBot="1">
       <c r="B31" s="41"/>
-      <c r="C31" s="150" t="s">
+      <c r="C31" s="185" t="s">
         <v>43</v>
       </c>
       <c r="D31" s="24" t="s">
@@ -3872,7 +3994,7 @@
     </row>
     <row r="32" spans="2:10" ht="16" thickBot="1">
       <c r="B32" s="41"/>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="185" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="24" t="s">
@@ -3894,7 +4016,7 @@
     </row>
     <row r="33" spans="2:10" ht="16" thickBot="1">
       <c r="B33" s="41"/>
-      <c r="C33" s="150" t="s">
+      <c r="C33" s="185" t="s">
         <v>45</v>
       </c>
       <c r="D33" s="24" t="s">
@@ -3916,7 +4038,7 @@
     </row>
     <row r="34" spans="2:10" ht="16" thickBot="1">
       <c r="B34" s="41"/>
-      <c r="C34" s="150" t="s">
+      <c r="C34" s="185" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="24" t="s">
@@ -3938,7 +4060,7 @@
     </row>
     <row r="35" spans="2:10" ht="16" thickBot="1">
       <c r="B35" s="41"/>
-      <c r="C35" s="150" t="s">
+      <c r="C35" s="185" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="24" t="s">
@@ -3953,15 +4075,15 @@
         <v>48</v>
       </c>
       <c r="H35" s="37"/>
-      <c r="I35" s="200" t="s">
+      <c r="I35" s="183" t="s">
         <v>50</v>
       </c>
       <c r="J35" s="108"/>
     </row>
     <row r="36" spans="2:10" ht="16" thickBot="1">
       <c r="B36" s="41"/>
-      <c r="C36" s="201" t="s">
-        <v>106</v>
+      <c r="C36" s="185" t="s">
+        <v>105</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>47</v>
@@ -3974,8 +4096,8 @@
         <v>48</v>
       </c>
       <c r="H36" s="37"/>
-      <c r="I36" s="202" t="s">
-        <v>107</v>
+      <c r="I36" s="184" t="s">
+        <v>106</v>
       </c>
       <c r="J36" s="108"/>
     </row>
@@ -3993,7 +4115,7 @@
     <row r="38" spans="2:10" ht="16" thickBot="1">
       <c r="B38" s="41"/>
       <c r="C38" s="32" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D38" s="121"/>
       <c r="E38" s="121"/>
@@ -4005,7 +4127,7 @@
     </row>
     <row r="39" spans="2:10" ht="16" thickBot="1">
       <c r="B39" s="41"/>
-      <c r="C39" s="149" t="s">
+      <c r="C39" s="185" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="24" t="s">
@@ -4027,7 +4149,7 @@
     </row>
     <row r="40" spans="2:10" ht="16" thickBot="1">
       <c r="B40" s="41"/>
-      <c r="C40" s="150" t="s">
+      <c r="C40" s="185" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="24" t="s">
@@ -4049,7 +4171,7 @@
     </row>
     <row r="41" spans="2:10" ht="16" thickBot="1">
       <c r="B41" s="41"/>
-      <c r="C41" s="150" t="s">
+      <c r="C41" s="185" t="s">
         <v>46</v>
       </c>
       <c r="D41" s="24" t="s">
@@ -4071,7 +4193,7 @@
     </row>
     <row r="42" spans="2:10" ht="16" thickBot="1">
       <c r="B42" s="41"/>
-      <c r="C42" s="150" t="s">
+      <c r="C42" s="185" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="24" t="s">
@@ -4093,7 +4215,7 @@
     </row>
     <row r="43" spans="2:10" ht="16" thickBot="1">
       <c r="B43" s="41"/>
-      <c r="C43" s="150" t="s">
+      <c r="C43" s="185" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="24" t="s">
@@ -4115,7 +4237,7 @@
     </row>
     <row r="44" spans="2:10" ht="16" thickBot="1">
       <c r="B44" s="41"/>
-      <c r="C44" s="150" t="s">
+      <c r="C44" s="185" t="s">
         <v>44</v>
       </c>
       <c r="D44" s="24" t="s">
@@ -4130,15 +4252,15 @@
         <v>48</v>
       </c>
       <c r="H44" s="37"/>
-      <c r="I44" s="200" t="s">
+      <c r="I44" s="183" t="s">
         <v>50</v>
       </c>
       <c r="J44" s="108"/>
     </row>
     <row r="45" spans="2:10" ht="16" thickBot="1">
       <c r="B45" s="41"/>
-      <c r="C45" s="201" t="s">
-        <v>106</v>
+      <c r="C45" s="185" t="s">
+        <v>105</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>47</v>
@@ -4151,8 +4273,8 @@
         <v>48</v>
       </c>
       <c r="H45" s="37"/>
-      <c r="I45" s="202" t="s">
-        <v>107</v>
+      <c r="I45" s="184" t="s">
+        <v>106</v>
       </c>
       <c r="J45" s="108"/>
     </row>
@@ -4195,7 +4317,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:BE52"/>
@@ -4264,7 +4386,7 @@
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="1" t="s">
@@ -4329,8 +4451,8 @@
       <c r="L6" s="18"/>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
-      <c r="O6" s="175" t="s">
-        <v>93</v>
+      <c r="O6" s="173" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
@@ -4347,7 +4469,7 @@
       <c r="F7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="167">
+      <c r="G7" s="165">
         <f>M7</f>
         <v>3.7499999999999999E-3</v>
       </c>
@@ -4356,7 +4478,7 @@
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
-      <c r="M7" s="166">
+      <c r="M7" s="164">
         <f>Notes!G108</f>
         <v>3.7499999999999999E-3</v>
       </c>
@@ -4391,14 +4513,14 @@
       <c r="L8" s="18"/>
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
-      <c r="O8" s="175" t="s">
-        <v>94</v>
+      <c r="O8" s="173" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="144" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="140"/>
       <c r="C9" s="141" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D9" s="141"/>
       <c r="E9" s="141"/>
@@ -4410,7 +4532,7 @@
         <v>8.2699999999999994E-4</v>
       </c>
       <c r="H9" s="143"/>
-      <c r="I9" s="173">
+      <c r="I9" s="171">
         <f>Notes!F25</f>
         <v>8.2699999999999994E-4</v>
       </c>
@@ -4419,8 +4541,8 @@
       <c r="L9" s="18"/>
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
-      <c r="O9" s="175" t="s">
-        <v>94</v>
+      <c r="O9" s="173" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
@@ -4437,12 +4559,12 @@
       <c r="F10" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="173">
+      <c r="G10" s="171">
         <f>I10</f>
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="H10" s="174"/>
-      <c r="I10" s="173">
+      <c r="H10" s="172"/>
+      <c r="I10" s="171">
         <f>Notes!F45</f>
         <v>5.6399999999999999E-2</v>
       </c>
@@ -4451,8 +4573,8 @@
       <c r="L10" s="18"/>
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
-      <c r="O10" s="199" t="s">
-        <v>105</v>
+      <c r="O10" s="182" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="6" customFormat="1">
@@ -4461,9 +4583,9 @@
       <c r="D11" s="126"/>
       <c r="E11" s="126"/>
       <c r="F11" s="24"/>
-      <c r="G11" s="171"/>
+      <c r="G11" s="169"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="171"/>
+      <c r="I11" s="169"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -4507,7 +4629,7 @@
     <row r="14" spans="2:15" ht="16" thickBot="1">
       <c r="B14" s="73"/>
       <c r="C14" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -4709,7 +4831,7 @@
     <row r="22" spans="2:57" ht="16" thickBot="1">
       <c r="B22" s="73"/>
       <c r="C22" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
@@ -4952,7 +5074,7 @@
     <row r="30" spans="2:57" ht="16" thickBot="1">
       <c r="B30" s="73"/>
       <c r="C30" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
@@ -5314,7 +5436,7 @@
     <row r="38" spans="2:57" ht="16" thickBot="1">
       <c r="B38" s="73"/>
       <c r="C38" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -5560,7 +5682,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L14"/>
@@ -5762,24 +5884,24 @@
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="134" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="134"/>
       <c r="G13" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
         <v>2016</v>
       </c>
-      <c r="J13" s="165">
+      <c r="J13" s="163">
         <v>42419</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L13" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="2:12">
@@ -5800,6 +5922,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AI147"/>
   <sheetViews>
     <sheetView topLeftCell="A72" workbookViewId="0">
@@ -5872,7 +5995,7 @@
     </row>
     <row r="4" spans="2:25" customFormat="1" ht="18">
       <c r="B4" s="116"/>
-      <c r="C4" s="177" t="s">
+      <c r="C4" s="175" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="128"/>
@@ -5983,7 +6106,7 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="128"/>
       <c r="G8" s="128"/>
@@ -6344,13 +6467,13 @@
       <c r="B22" s="116"/>
       <c r="C22" s="128"/>
       <c r="D22" s="128"/>
-      <c r="E22" s="179" t="s">
-        <v>92</v>
-      </c>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
+      <c r="E22" s="177" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
       <c r="J22" s="128"/>
       <c r="K22" s="128"/>
       <c r="L22" s="128"/>
@@ -6372,11 +6495,11 @@
       <c r="B23" s="116"/>
       <c r="C23" s="128"/>
       <c r="D23" s="128"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="182"/>
-      <c r="G23" s="182"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="182"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="180"/>
+      <c r="G23" s="180"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
       <c r="J23" s="128"/>
       <c r="K23" s="128"/>
       <c r="L23" s="128"/>
@@ -6398,17 +6521,17 @@
       <c r="B24" s="116"/>
       <c r="C24" s="128"/>
       <c r="D24" s="128"/>
-      <c r="E24" s="182"/>
-      <c r="F24" s="179">
+      <c r="E24" s="180"/>
+      <c r="F24" s="177">
         <v>0.82699999999999996</v>
       </c>
-      <c r="G24" s="179" t="s">
-        <v>90</v>
-      </c>
-      <c r="H24" s="179" t="s">
+      <c r="G24" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="182"/>
+      <c r="I24" s="180"/>
       <c r="J24" s="128"/>
       <c r="K24" s="128"/>
       <c r="L24" s="128"/>
@@ -6430,16 +6553,16 @@
       <c r="B25" s="116"/>
       <c r="C25" s="128"/>
       <c r="D25" s="128"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="179">
+      <c r="E25" s="180"/>
+      <c r="F25" s="177">
         <f>F24/1000</f>
         <v>8.2699999999999994E-4</v>
       </c>
-      <c r="G25" s="179" t="s">
+      <c r="G25" s="177" t="s">
         <v>67</v>
       </c>
-      <c r="H25" s="179"/>
-      <c r="I25" s="182"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="180"/>
       <c r="J25" s="128"/>
       <c r="K25" s="128"/>
       <c r="L25" s="128"/>
@@ -6461,17 +6584,17 @@
       <c r="B26" s="116"/>
       <c r="C26" s="128"/>
       <c r="D26" s="128"/>
-      <c r="E26" s="182"/>
-      <c r="F26" s="179">
+      <c r="E26" s="180"/>
+      <c r="F26" s="177">
         <v>31.4</v>
       </c>
-      <c r="G26" s="179" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="179" t="s">
+      <c r="G26" s="177" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="182"/>
+      <c r="I26" s="180"/>
       <c r="J26" s="128"/>
       <c r="K26" s="128"/>
       <c r="L26" s="128"/>
@@ -6493,18 +6616,18 @@
       <c r="B27" s="116"/>
       <c r="C27" s="128"/>
       <c r="D27" s="128"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="179">
+      <c r="E27" s="180"/>
+      <c r="F27" s="177">
         <f>F26/F24</f>
         <v>37.968561064087062</v>
       </c>
-      <c r="G27" s="179" t="s">
+      <c r="G27" s="177" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="179" t="s">
+      <c r="H27" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="I27" s="182"/>
+      <c r="I27" s="180"/>
       <c r="J27" s="128"/>
       <c r="K27" s="128"/>
       <c r="L27" s="128"/>
@@ -6566,7 +6689,7 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:7" customFormat="1" ht="16">
@@ -6605,7 +6728,7 @@
         <v>56.4</v>
       </c>
       <c r="G44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:7" customFormat="1" ht="16">
@@ -6758,16 +6881,16 @@
     <row r="55" spans="2:35" customFormat="1" ht="16">
       <c r="B55" s="116"/>
       <c r="C55" s="128"/>
-      <c r="D55" s="179" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="179"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="179"/>
-      <c r="I55" s="179"/>
-      <c r="J55" s="179"/>
-      <c r="K55" s="179"/>
+      <c r="D55" s="177" t="s">
+        <v>87</v>
+      </c>
+      <c r="E55" s="177"/>
+      <c r="F55" s="177"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="177"/>
+      <c r="J55" s="177"/>
+      <c r="K55" s="177"/>
       <c r="L55" s="128"/>
       <c r="M55" s="128"/>
       <c r="N55" s="128"/>
@@ -6786,14 +6909,14 @@
     <row r="56" spans="2:35" customFormat="1" ht="16">
       <c r="B56" s="116"/>
       <c r="C56" s="128"/>
-      <c r="D56" s="179"/>
-      <c r="E56" s="179"/>
-      <c r="F56" s="179"/>
-      <c r="G56" s="179"/>
-      <c r="H56" s="179"/>
-      <c r="I56" s="179"/>
-      <c r="J56" s="179"/>
-      <c r="K56" s="179"/>
+      <c r="D56" s="177"/>
+      <c r="E56" s="177"/>
+      <c r="F56" s="177"/>
+      <c r="G56" s="177"/>
+      <c r="H56" s="177"/>
+      <c r="I56" s="177"/>
+      <c r="J56" s="177"/>
+      <c r="K56" s="177"/>
       <c r="L56" s="128"/>
       <c r="M56" s="128"/>
       <c r="N56" s="128"/>
@@ -6822,14 +6945,14 @@
     <row r="57" spans="2:35" customFormat="1" ht="16">
       <c r="B57" s="116"/>
       <c r="C57" s="128"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="179"/>
-      <c r="F57" s="179"/>
-      <c r="G57" s="179"/>
-      <c r="H57" s="179"/>
-      <c r="I57" s="179"/>
-      <c r="J57" s="179"/>
-      <c r="K57" s="179"/>
+      <c r="D57" s="177"/>
+      <c r="E57" s="177"/>
+      <c r="F57" s="177"/>
+      <c r="G57" s="177"/>
+      <c r="H57" s="177"/>
+      <c r="I57" s="177"/>
+      <c r="J57" s="177"/>
+      <c r="K57" s="177"/>
       <c r="L57" s="128"/>
       <c r="M57" s="128"/>
       <c r="N57" s="128"/>
@@ -6858,14 +6981,14 @@
     <row r="58" spans="2:35" customFormat="1" ht="16">
       <c r="B58" s="116"/>
       <c r="C58" s="128"/>
-      <c r="D58" s="179"/>
-      <c r="E58" s="179"/>
-      <c r="F58" s="179"/>
-      <c r="G58" s="179"/>
-      <c r="H58" s="179"/>
-      <c r="I58" s="179"/>
-      <c r="J58" s="179"/>
-      <c r="K58" s="179"/>
+      <c r="D58" s="177"/>
+      <c r="E58" s="177"/>
+      <c r="F58" s="177"/>
+      <c r="G58" s="177"/>
+      <c r="H58" s="177"/>
+      <c r="I58" s="177"/>
+      <c r="J58" s="177"/>
+      <c r="K58" s="177"/>
       <c r="L58" s="128"/>
       <c r="M58" s="128"/>
       <c r="N58" s="128"/>
@@ -6894,16 +7017,16 @@
     <row r="59" spans="2:35" customFormat="1" ht="16">
       <c r="B59" s="116"/>
       <c r="C59" s="128"/>
-      <c r="D59" s="179"/>
-      <c r="E59" s="180" t="s">
-        <v>84</v>
-      </c>
-      <c r="F59" s="179"/>
-      <c r="G59" s="179"/>
-      <c r="H59" s="179"/>
-      <c r="I59" s="179"/>
-      <c r="J59" s="179"/>
-      <c r="K59" s="179"/>
+      <c r="D59" s="177"/>
+      <c r="E59" s="178" t="s">
+        <v>83</v>
+      </c>
+      <c r="F59" s="177"/>
+      <c r="G59" s="177"/>
+      <c r="H59" s="177"/>
+      <c r="I59" s="177"/>
+      <c r="J59" s="177"/>
+      <c r="K59" s="177"/>
       <c r="L59" s="128"/>
       <c r="M59" s="128"/>
       <c r="N59" s="128"/>
@@ -6932,20 +7055,20 @@
     <row r="60" spans="2:35" customFormat="1" ht="16">
       <c r="B60" s="116"/>
       <c r="C60" s="128"/>
-      <c r="D60" s="179"/>
-      <c r="E60" s="179" t="s">
+      <c r="D60" s="177"/>
+      <c r="E60" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="179"/>
-      <c r="G60" s="181"/>
-      <c r="H60" s="181">
+      <c r="F60" s="177"/>
+      <c r="G60" s="179"/>
+      <c r="H60" s="179">
         <v>0</v>
       </c>
-      <c r="I60" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J60" s="179"/>
-      <c r="K60" s="179" t="s">
+      <c r="I60" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J60" s="177"/>
+      <c r="K60" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L60" s="128"/>
@@ -6976,20 +7099,20 @@
     <row r="61" spans="2:35" customFormat="1" ht="16">
       <c r="B61" s="116"/>
       <c r="C61" s="128"/>
-      <c r="D61" s="179"/>
-      <c r="E61" s="179" t="s">
+      <c r="D61" s="177"/>
+      <c r="E61" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="179"/>
-      <c r="G61" s="181"/>
-      <c r="H61" s="181">
+      <c r="F61" s="177"/>
+      <c r="G61" s="179"/>
+      <c r="H61" s="179">
         <v>0</v>
       </c>
-      <c r="I61" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J61" s="179"/>
-      <c r="K61" s="179"/>
+      <c r="I61" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J61" s="177"/>
+      <c r="K61" s="177"/>
       <c r="L61" s="128"/>
       <c r="M61" s="128"/>
       <c r="N61" s="128"/>
@@ -7018,20 +7141,20 @@
     <row r="62" spans="2:35" customFormat="1" ht="16">
       <c r="B62" s="116"/>
       <c r="C62" s="128"/>
-      <c r="D62" s="179"/>
-      <c r="E62" s="179" t="s">
+      <c r="D62" s="177"/>
+      <c r="E62" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="F62" s="179"/>
-      <c r="G62" s="179"/>
-      <c r="H62" s="179">
+      <c r="F62" s="177"/>
+      <c r="G62" s="177"/>
+      <c r="H62" s="177">
         <v>1.33618E-3</v>
       </c>
-      <c r="I62" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J62" s="179"/>
-      <c r="K62" s="179"/>
+      <c r="I62" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J62" s="177"/>
+      <c r="K62" s="177"/>
       <c r="L62" s="128"/>
       <c r="M62" s="128"/>
       <c r="N62" s="128"/>
@@ -7060,20 +7183,20 @@
     <row r="63" spans="2:35" customFormat="1" ht="16">
       <c r="B63" s="116"/>
       <c r="C63" s="128"/>
-      <c r="D63" s="179"/>
-      <c r="E63" s="179" t="s">
+      <c r="D63" s="177"/>
+      <c r="E63" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="179"/>
-      <c r="G63" s="179"/>
-      <c r="H63" s="179">
+      <c r="F63" s="177"/>
+      <c r="G63" s="177"/>
+      <c r="H63" s="177">
         <v>4.3898599999999998E-3</v>
       </c>
-      <c r="I63" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J63" s="179"/>
-      <c r="K63" s="179"/>
+      <c r="I63" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J63" s="177"/>
+      <c r="K63" s="177"/>
       <c r="L63" s="128"/>
       <c r="M63" s="128"/>
       <c r="N63" s="128"/>
@@ -7102,20 +7225,20 @@
     <row r="64" spans="2:35" customFormat="1" ht="16">
       <c r="B64" s="116"/>
       <c r="C64" s="128"/>
-      <c r="D64" s="179"/>
-      <c r="E64" s="179" t="s">
+      <c r="D64" s="177"/>
+      <c r="E64" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="179"/>
-      <c r="G64" s="179"/>
-      <c r="H64" s="179">
+      <c r="F64" s="177"/>
+      <c r="G64" s="177"/>
+      <c r="H64" s="177">
         <v>5.6754100000000002E-2</v>
       </c>
-      <c r="I64" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J64" s="179"/>
-      <c r="K64" s="179"/>
+      <c r="I64" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J64" s="177"/>
+      <c r="K64" s="177"/>
       <c r="L64" s="128"/>
       <c r="M64" s="128"/>
       <c r="N64" s="128"/>
@@ -7144,20 +7267,20 @@
     <row r="65" spans="1:35" customFormat="1" ht="16">
       <c r="B65" s="116"/>
       <c r="C65" s="128"/>
-      <c r="D65" s="179"/>
-      <c r="E65" s="179" t="s">
+      <c r="D65" s="177"/>
+      <c r="E65" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="F65" s="179"/>
-      <c r="G65" s="181"/>
-      <c r="H65" s="181">
+      <c r="F65" s="177"/>
+      <c r="G65" s="179"/>
+      <c r="H65" s="179">
         <v>0</v>
       </c>
-      <c r="I65" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J65" s="179"/>
-      <c r="K65" s="179" t="s">
+      <c r="I65" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L65" s="128"/>
@@ -7188,14 +7311,14 @@
     <row r="66" spans="1:35" customFormat="1" ht="16">
       <c r="B66" s="116"/>
       <c r="C66" s="128"/>
-      <c r="D66" s="179"/>
-      <c r="E66" s="179"/>
-      <c r="F66" s="179"/>
-      <c r="G66" s="179"/>
-      <c r="H66" s="179"/>
-      <c r="I66" s="179"/>
-      <c r="J66" s="179"/>
-      <c r="K66" s="179"/>
+      <c r="D66" s="177"/>
+      <c r="E66" s="177"/>
+      <c r="F66" s="177"/>
+      <c r="G66" s="177"/>
+      <c r="H66" s="177"/>
+      <c r="I66" s="177"/>
+      <c r="J66" s="177"/>
+      <c r="K66" s="177"/>
       <c r="L66" s="128"/>
       <c r="M66" s="128"/>
       <c r="N66" s="128"/>
@@ -7224,14 +7347,14 @@
     <row r="67" spans="1:35" customFormat="1" ht="16">
       <c r="B67" s="116"/>
       <c r="C67" s="128"/>
-      <c r="D67" s="179"/>
-      <c r="E67" s="179"/>
-      <c r="F67" s="179"/>
-      <c r="G67" s="179"/>
-      <c r="H67" s="179"/>
-      <c r="I67" s="179"/>
-      <c r="J67" s="179"/>
-      <c r="K67" s="179"/>
+      <c r="D67" s="177"/>
+      <c r="E67" s="177"/>
+      <c r="F67" s="177"/>
+      <c r="G67" s="177"/>
+      <c r="H67" s="177"/>
+      <c r="I67" s="177"/>
+      <c r="J67" s="177"/>
+      <c r="K67" s="177"/>
       <c r="L67" s="128"/>
       <c r="M67" s="128"/>
       <c r="N67" s="128"/>
@@ -7260,16 +7383,16 @@
     <row r="68" spans="1:35" customFormat="1" ht="16">
       <c r="B68" s="116"/>
       <c r="C68" s="128"/>
-      <c r="D68" s="179"/>
-      <c r="E68" s="180" t="s">
-        <v>86</v>
-      </c>
-      <c r="F68" s="179"/>
-      <c r="G68" s="179"/>
-      <c r="H68" s="179"/>
-      <c r="I68" s="179"/>
-      <c r="J68" s="179"/>
-      <c r="K68" s="179"/>
+      <c r="D68" s="177"/>
+      <c r="E68" s="178" t="s">
+        <v>85</v>
+      </c>
+      <c r="F68" s="177"/>
+      <c r="G68" s="177"/>
+      <c r="H68" s="177"/>
+      <c r="I68" s="177"/>
+      <c r="J68" s="177"/>
+      <c r="K68" s="177"/>
       <c r="L68" s="128"/>
       <c r="M68" s="128"/>
       <c r="N68" s="128"/>
@@ -7298,20 +7421,20 @@
     <row r="69" spans="1:35" customFormat="1" ht="16">
       <c r="B69" s="116"/>
       <c r="C69" s="128"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="179" t="s">
+      <c r="D69" s="177"/>
+      <c r="E69" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="F69" s="179"/>
-      <c r="G69" s="181"/>
-      <c r="H69" s="181">
+      <c r="F69" s="177"/>
+      <c r="G69" s="179"/>
+      <c r="H69" s="179">
         <v>0</v>
       </c>
-      <c r="I69" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J69" s="179"/>
-      <c r="K69" s="179" t="s">
+      <c r="I69" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" s="177"/>
+      <c r="K69" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L69" s="128"/>
@@ -7342,20 +7465,20 @@
     <row r="70" spans="1:35" customFormat="1" ht="16">
       <c r="B70" s="116"/>
       <c r="C70" s="128"/>
-      <c r="D70" s="179"/>
-      <c r="E70" s="179" t="s">
+      <c r="D70" s="177"/>
+      <c r="E70" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="179"/>
-      <c r="G70" s="181"/>
-      <c r="H70" s="181">
+      <c r="F70" s="177"/>
+      <c r="G70" s="179"/>
+      <c r="H70" s="179">
         <v>0</v>
       </c>
-      <c r="I70" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J70" s="179"/>
-      <c r="K70" s="179"/>
+      <c r="I70" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J70" s="177"/>
+      <c r="K70" s="177"/>
       <c r="L70" s="128"/>
       <c r="M70" s="128"/>
       <c r="N70" s="128"/>
@@ -7384,20 +7507,20 @@
     <row r="71" spans="1:35" customFormat="1" ht="16">
       <c r="B71" s="116"/>
       <c r="C71" s="128"/>
-      <c r="D71" s="179"/>
-      <c r="E71" s="179" t="s">
+      <c r="D71" s="177"/>
+      <c r="E71" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="F71" s="179"/>
-      <c r="G71" s="179"/>
-      <c r="H71" s="179">
+      <c r="F71" s="177"/>
+      <c r="G71" s="177"/>
+      <c r="H71" s="177">
         <v>9.0760000000000005E-4</v>
       </c>
-      <c r="I71" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J71" s="179"/>
-      <c r="K71" s="179"/>
+      <c r="I71" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J71" s="177"/>
+      <c r="K71" s="177"/>
       <c r="L71" s="128"/>
       <c r="M71" s="128"/>
       <c r="N71" s="128"/>
@@ -7426,20 +7549,20 @@
     <row r="72" spans="1:35" customFormat="1" ht="16">
       <c r="B72" s="116"/>
       <c r="C72" s="128"/>
-      <c r="D72" s="179"/>
-      <c r="E72" s="179" t="s">
+      <c r="D72" s="177"/>
+      <c r="E72" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="F72" s="179"/>
-      <c r="G72" s="179"/>
-      <c r="H72" s="179">
+      <c r="F72" s="177"/>
+      <c r="G72" s="177"/>
+      <c r="H72" s="177">
         <v>1.1197E-4</v>
       </c>
-      <c r="I72" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J72" s="179"/>
-      <c r="K72" s="179"/>
+      <c r="I72" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J72" s="177"/>
+      <c r="K72" s="177"/>
       <c r="L72" s="128"/>
       <c r="M72" s="128"/>
       <c r="N72" s="128"/>
@@ -7468,20 +7591,20 @@
     <row r="73" spans="1:35" customFormat="1" ht="16">
       <c r="B73" s="116"/>
       <c r="C73" s="128"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="179" t="s">
+      <c r="D73" s="177"/>
+      <c r="E73" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="179"/>
-      <c r="G73" s="179"/>
-      <c r="H73" s="179">
+      <c r="F73" s="177"/>
+      <c r="G73" s="177"/>
+      <c r="H73" s="177">
         <v>5.5211700000000002E-2</v>
       </c>
-      <c r="I73" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J73" s="179"/>
-      <c r="K73" s="179"/>
+      <c r="I73" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J73" s="177"/>
+      <c r="K73" s="177"/>
       <c r="L73" s="128"/>
       <c r="M73" s="128"/>
       <c r="N73" s="128"/>
@@ -7510,20 +7633,20 @@
     <row r="74" spans="1:35" customFormat="1" ht="16">
       <c r="B74" s="116"/>
       <c r="C74" s="128"/>
-      <c r="D74" s="179"/>
-      <c r="E74" s="179" t="s">
+      <c r="D74" s="177"/>
+      <c r="E74" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="F74" s="179"/>
-      <c r="G74" s="181"/>
-      <c r="H74" s="181">
+      <c r="F74" s="177"/>
+      <c r="G74" s="179"/>
+      <c r="H74" s="179">
         <v>0</v>
       </c>
-      <c r="I74" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J74" s="179"/>
-      <c r="K74" s="179" t="s">
+      <c r="I74" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J74" s="177"/>
+      <c r="K74" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L74" s="128"/>
@@ -7554,14 +7677,14 @@
     <row r="75" spans="1:35" customFormat="1" ht="16">
       <c r="B75" s="116"/>
       <c r="C75" s="128"/>
-      <c r="D75" s="179"/>
-      <c r="E75" s="179"/>
-      <c r="F75" s="179"/>
-      <c r="G75" s="179"/>
-      <c r="H75" s="179"/>
-      <c r="I75" s="179"/>
-      <c r="J75" s="179"/>
-      <c r="K75" s="179"/>
+      <c r="D75" s="177"/>
+      <c r="E75" s="177"/>
+      <c r="F75" s="177"/>
+      <c r="G75" s="177"/>
+      <c r="H75" s="177"/>
+      <c r="I75" s="177"/>
+      <c r="J75" s="177"/>
+      <c r="K75" s="177"/>
       <c r="L75" s="128"/>
       <c r="M75" s="128"/>
       <c r="N75" s="128"/>
@@ -7590,14 +7713,14 @@
     <row r="76" spans="1:35" customFormat="1" ht="16">
       <c r="B76" s="116"/>
       <c r="C76" s="128"/>
-      <c r="D76" s="179"/>
-      <c r="E76" s="179"/>
-      <c r="F76" s="179"/>
-      <c r="G76" s="179"/>
-      <c r="H76" s="179"/>
-      <c r="I76" s="179"/>
-      <c r="J76" s="179"/>
-      <c r="K76" s="179"/>
+      <c r="D76" s="177"/>
+      <c r="E76" s="177"/>
+      <c r="F76" s="177"/>
+      <c r="G76" s="177"/>
+      <c r="H76" s="177"/>
+      <c r="I76" s="177"/>
+      <c r="J76" s="177"/>
+      <c r="K76" s="177"/>
       <c r="L76" s="128"/>
       <c r="M76" s="128"/>
       <c r="N76" s="128"/>
@@ -7626,16 +7749,16 @@
     <row r="77" spans="1:35" customFormat="1" ht="16">
       <c r="B77" s="116"/>
       <c r="C77" s="128"/>
-      <c r="D77" s="179"/>
-      <c r="E77" s="180" t="s">
-        <v>85</v>
-      </c>
-      <c r="F77" s="179"/>
-      <c r="G77" s="179"/>
-      <c r="H77" s="179"/>
-      <c r="I77" s="179"/>
-      <c r="J77" s="179"/>
-      <c r="K77" s="179"/>
+      <c r="D77" s="177"/>
+      <c r="E77" s="178" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="177"/>
+      <c r="G77" s="177"/>
+      <c r="H77" s="177"/>
+      <c r="I77" s="177"/>
+      <c r="J77" s="177"/>
+      <c r="K77" s="177"/>
       <c r="L77" s="128"/>
       <c r="M77" s="128"/>
       <c r="N77" s="128"/>
@@ -7664,20 +7787,20 @@
     <row r="78" spans="1:35" customFormat="1" ht="16">
       <c r="B78" s="116"/>
       <c r="C78" s="128"/>
-      <c r="D78" s="179"/>
-      <c r="E78" s="179" t="s">
+      <c r="D78" s="177"/>
+      <c r="E78" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="179"/>
-      <c r="G78" s="181"/>
-      <c r="H78" s="181">
+      <c r="F78" s="177"/>
+      <c r="G78" s="179"/>
+      <c r="H78" s="179">
         <v>0</v>
       </c>
-      <c r="I78" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J78" s="179"/>
-      <c r="K78" s="179" t="s">
+      <c r="I78" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J78" s="177"/>
+      <c r="K78" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L78" s="128"/>
@@ -7709,20 +7832,20 @@
       <c r="A79"/>
       <c r="B79" s="116"/>
       <c r="C79" s="128"/>
-      <c r="D79" s="179"/>
-      <c r="E79" s="179" t="s">
+      <c r="D79" s="177"/>
+      <c r="E79" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="179"/>
-      <c r="G79" s="181"/>
-      <c r="H79" s="181">
+      <c r="F79" s="177"/>
+      <c r="G79" s="179"/>
+      <c r="H79" s="179">
         <v>0</v>
       </c>
-      <c r="I79" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J79" s="179"/>
-      <c r="K79" s="179"/>
+      <c r="I79" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J79" s="177"/>
+      <c r="K79" s="177"/>
       <c r="L79" s="128"/>
       <c r="M79" s="128"/>
       <c r="N79" s="128"/>
@@ -7751,20 +7874,20 @@
     <row r="80" spans="1:35" customFormat="1" ht="16">
       <c r="B80" s="116"/>
       <c r="C80" s="128"/>
-      <c r="D80" s="179"/>
-      <c r="E80" s="179" t="s">
+      <c r="D80" s="177"/>
+      <c r="E80" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="F80" s="179"/>
-      <c r="G80" s="179"/>
-      <c r="H80" s="179">
+      <c r="F80" s="177"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="177">
         <v>1.02917E-3</v>
       </c>
-      <c r="I80" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J80" s="179"/>
-      <c r="K80" s="179"/>
+      <c r="I80" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J80" s="177"/>
+      <c r="K80" s="177"/>
       <c r="L80" s="128"/>
       <c r="M80" s="128"/>
       <c r="N80" s="128"/>
@@ -7793,20 +7916,20 @@
     <row r="81" spans="1:35" customFormat="1" ht="16">
       <c r="B81" s="116"/>
       <c r="C81" s="128"/>
-      <c r="D81" s="179"/>
-      <c r="E81" s="179" t="s">
+      <c r="D81" s="177"/>
+      <c r="E81" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="179"/>
-      <c r="G81" s="179"/>
-      <c r="H81" s="179">
+      <c r="F81" s="177"/>
+      <c r="G81" s="177"/>
+      <c r="H81" s="177">
         <v>1.1242699999999999E-3</v>
       </c>
-      <c r="I81" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J81" s="179"/>
-      <c r="K81" s="179"/>
+      <c r="I81" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J81" s="177"/>
+      <c r="K81" s="177"/>
       <c r="L81" s="128"/>
       <c r="M81" s="128"/>
       <c r="N81" s="128"/>
@@ -7835,20 +7958,20 @@
     <row r="82" spans="1:35" customFormat="1" ht="16">
       <c r="B82" s="116"/>
       <c r="C82" s="128"/>
-      <c r="D82" s="179"/>
-      <c r="E82" s="179" t="s">
+      <c r="D82" s="177"/>
+      <c r="E82" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="F82" s="179"/>
-      <c r="G82" s="179"/>
-      <c r="H82" s="179">
+      <c r="F82" s="177"/>
+      <c r="G82" s="177"/>
+      <c r="H82" s="177">
         <v>5.6648700000000003E-2</v>
       </c>
-      <c r="I82" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J82" s="179"/>
-      <c r="K82" s="179"/>
+      <c r="I82" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J82" s="177"/>
+      <c r="K82" s="177"/>
       <c r="L82" s="128"/>
       <c r="M82" s="128"/>
       <c r="N82" s="128"/>
@@ -7877,20 +8000,20 @@
     <row r="83" spans="1:35" customFormat="1" ht="16">
       <c r="B83" s="116"/>
       <c r="C83" s="128"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179" t="s">
+      <c r="D83" s="177"/>
+      <c r="E83" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="F83" s="179"/>
-      <c r="G83" s="181"/>
-      <c r="H83" s="181">
+      <c r="F83" s="177"/>
+      <c r="G83" s="179"/>
+      <c r="H83" s="179">
         <v>0</v>
       </c>
-      <c r="I83" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J83" s="179"/>
-      <c r="K83" s="179" t="s">
+      <c r="I83" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J83" s="177"/>
+      <c r="K83" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L83" s="128"/>
@@ -7922,14 +8045,14 @@
       <c r="A84"/>
       <c r="B84" s="116"/>
       <c r="C84" s="128"/>
-      <c r="D84" s="179"/>
-      <c r="E84" s="179"/>
-      <c r="F84" s="179"/>
-      <c r="G84" s="179"/>
-      <c r="H84" s="179"/>
-      <c r="I84" s="179"/>
-      <c r="J84" s="179"/>
-      <c r="K84" s="179"/>
+      <c r="D84" s="177"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="177"/>
+      <c r="G84" s="177"/>
+      <c r="H84" s="177"/>
+      <c r="I84" s="177"/>
+      <c r="J84" s="177"/>
+      <c r="K84" s="177"/>
       <c r="L84" s="128"/>
       <c r="M84" s="128"/>
       <c r="N84" s="128"/>
@@ -7939,14 +8062,14 @@
       <c r="A85"/>
       <c r="B85" s="116"/>
       <c r="C85" s="128"/>
-      <c r="D85" s="179"/>
-      <c r="E85" s="179"/>
-      <c r="F85" s="179"/>
-      <c r="G85" s="179"/>
-      <c r="H85" s="179"/>
-      <c r="I85" s="179"/>
-      <c r="J85" s="179"/>
-      <c r="K85" s="179"/>
+      <c r="D85" s="177"/>
+      <c r="E85" s="177"/>
+      <c r="F85" s="177"/>
+      <c r="G85" s="177"/>
+      <c r="H85" s="177"/>
+      <c r="I85" s="177"/>
+      <c r="J85" s="177"/>
+      <c r="K85" s="177"/>
       <c r="L85" s="128"/>
       <c r="M85" s="128"/>
       <c r="N85" s="128"/>
@@ -7956,16 +8079,16 @@
       <c r="A86"/>
       <c r="B86" s="116"/>
       <c r="C86" s="128"/>
-      <c r="D86" s="179"/>
-      <c r="E86" s="180" t="s">
-        <v>83</v>
-      </c>
-      <c r="F86" s="179"/>
-      <c r="G86" s="179"/>
-      <c r="H86" s="179"/>
-      <c r="I86" s="179"/>
-      <c r="J86" s="179"/>
-      <c r="K86" s="179"/>
+      <c r="D86" s="177"/>
+      <c r="E86" s="178" t="s">
+        <v>82</v>
+      </c>
+      <c r="F86" s="177"/>
+      <c r="G86" s="177"/>
+      <c r="H86" s="177"/>
+      <c r="I86" s="177"/>
+      <c r="J86" s="177"/>
+      <c r="K86" s="177"/>
       <c r="L86" s="128"/>
       <c r="M86" s="128"/>
       <c r="N86" s="128"/>
@@ -7975,20 +8098,20 @@
       <c r="A87"/>
       <c r="B87" s="116"/>
       <c r="C87" s="128"/>
-      <c r="D87" s="179"/>
-      <c r="E87" s="179" t="s">
+      <c r="D87" s="177"/>
+      <c r="E87" s="177" t="s">
         <v>42</v>
       </c>
-      <c r="F87" s="179"/>
-      <c r="G87" s="181"/>
-      <c r="H87" s="181">
+      <c r="F87" s="177"/>
+      <c r="G87" s="179"/>
+      <c r="H87" s="179">
         <v>0</v>
       </c>
-      <c r="I87" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J87" s="179"/>
-      <c r="K87" s="179" t="s">
+      <c r="I87" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J87" s="177"/>
+      <c r="K87" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L87" s="128"/>
@@ -8001,20 +8124,20 @@
       <c r="A88"/>
       <c r="B88" s="116"/>
       <c r="C88" s="128"/>
-      <c r="D88" s="179"/>
-      <c r="E88" s="179" t="s">
+      <c r="D88" s="177"/>
+      <c r="E88" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="F88" s="179"/>
-      <c r="G88" s="181"/>
-      <c r="H88" s="181">
+      <c r="F88" s="177"/>
+      <c r="G88" s="179"/>
+      <c r="H88" s="179">
         <v>0</v>
       </c>
-      <c r="I88" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J88" s="179"/>
-      <c r="K88" s="179"/>
+      <c r="I88" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J88" s="177"/>
+      <c r="K88" s="177"/>
       <c r="L88" s="128"/>
       <c r="M88" s="128"/>
       <c r="N88" s="128"/>
@@ -8025,20 +8148,20 @@
       <c r="A89"/>
       <c r="B89" s="116"/>
       <c r="C89" s="128"/>
-      <c r="D89" s="179"/>
-      <c r="E89" s="179" t="s">
+      <c r="D89" s="177"/>
+      <c r="E89" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="F89" s="179"/>
-      <c r="G89" s="179"/>
-      <c r="H89" s="179">
+      <c r="F89" s="177"/>
+      <c r="G89" s="177"/>
+      <c r="H89" s="177">
         <v>2.8005899999999999E-3</v>
       </c>
-      <c r="I89" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J89" s="179"/>
-      <c r="K89" s="179"/>
+      <c r="I89" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J89" s="177"/>
+      <c r="K89" s="177"/>
       <c r="L89" s="128"/>
       <c r="M89" s="128"/>
       <c r="N89" s="128"/>
@@ -8049,20 +8172,20 @@
       <c r="A90"/>
       <c r="B90" s="116"/>
       <c r="C90" s="128"/>
-      <c r="D90" s="179"/>
-      <c r="E90" s="179" t="s">
+      <c r="D90" s="177"/>
+      <c r="E90" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="179"/>
-      <c r="G90" s="179"/>
-      <c r="H90" s="179">
+      <c r="F90" s="177"/>
+      <c r="G90" s="177"/>
+      <c r="H90" s="177">
         <v>9.8861899999999996E-3</v>
       </c>
-      <c r="I90" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J90" s="179"/>
-      <c r="K90" s="179"/>
+      <c r="I90" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J90" s="177"/>
+      <c r="K90" s="177"/>
       <c r="L90" s="128"/>
       <c r="M90" s="128"/>
       <c r="N90" s="128"/>
@@ -8073,20 +8196,20 @@
       <c r="A91"/>
       <c r="B91" s="116"/>
       <c r="C91" s="128"/>
-      <c r="D91" s="179"/>
-      <c r="E91" s="179" t="s">
+      <c r="D91" s="177"/>
+      <c r="E91" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="179"/>
-      <c r="G91" s="179"/>
-      <c r="H91" s="179">
+      <c r="F91" s="177"/>
+      <c r="G91" s="177"/>
+      <c r="H91" s="177">
         <v>5.5120299999999997E-2</v>
       </c>
-      <c r="I91" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J91" s="179"/>
-      <c r="K91" s="179"/>
+      <c r="I91" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="177"/>
+      <c r="K91" s="177"/>
       <c r="L91" s="128"/>
       <c r="M91" s="128"/>
       <c r="N91" s="128"/>
@@ -8097,20 +8220,20 @@
       <c r="A92"/>
       <c r="B92" s="116"/>
       <c r="C92" s="128"/>
-      <c r="D92" s="179"/>
-      <c r="E92" s="179" t="s">
+      <c r="D92" s="177"/>
+      <c r="E92" s="177" t="s">
         <v>44</v>
       </c>
-      <c r="F92" s="179"/>
-      <c r="G92" s="181"/>
-      <c r="H92" s="181">
+      <c r="F92" s="177"/>
+      <c r="G92" s="179"/>
+      <c r="H92" s="179">
         <v>0</v>
       </c>
-      <c r="I92" s="179" t="s">
-        <v>87</v>
-      </c>
-      <c r="J92" s="179"/>
-      <c r="K92" s="179" t="s">
+      <c r="I92" s="177" t="s">
+        <v>86</v>
+      </c>
+      <c r="J92" s="177"/>
+      <c r="K92" s="177" t="s">
         <v>62</v>
       </c>
       <c r="L92" s="128"/>
@@ -8123,14 +8246,14 @@
       <c r="A93"/>
       <c r="B93" s="116"/>
       <c r="C93" s="128"/>
-      <c r="D93" s="178"/>
-      <c r="E93" s="178"/>
-      <c r="F93" s="178"/>
-      <c r="G93" s="178"/>
-      <c r="H93" s="178"/>
-      <c r="I93" s="178"/>
-      <c r="J93" s="178"/>
-      <c r="K93" s="178"/>
+      <c r="D93" s="176"/>
+      <c r="E93" s="176"/>
+      <c r="F93" s="176"/>
+      <c r="G93" s="176"/>
+      <c r="H93" s="176"/>
+      <c r="I93" s="176"/>
+      <c r="J93" s="176"/>
+      <c r="K93" s="176"/>
       <c r="L93" s="128"/>
       <c r="M93" s="128"/>
       <c r="N93" s="128"/>
@@ -8242,18 +8365,18 @@
       <c r="V97" s="128"/>
       <c r="W97" s="128"/>
       <c r="X97" s="128"/>
-      <c r="Y97" s="176"/>
-      <c r="Z97" s="169"/>
-      <c r="AA97" s="169"/>
-      <c r="AB97" s="169"/>
-      <c r="AC97" s="169"/>
-      <c r="AD97" s="169"/>
+      <c r="Y97" s="174"/>
+      <c r="Z97" s="167"/>
+      <c r="AA97" s="167"/>
+      <c r="AB97" s="167"/>
+      <c r="AC97" s="167"/>
+      <c r="AD97" s="167"/>
     </row>
     <row r="98" spans="1:35" ht="17">
       <c r="A98"/>
       <c r="B98" s="116"/>
       <c r="C98" s="136" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D98" s="128"/>
       <c r="E98" s="128"/>
@@ -8277,11 +8400,11 @@
       <c r="W98" s="128"/>
       <c r="X98" s="128"/>
       <c r="Y98" s="128"/>
-      <c r="Z98" s="169"/>
-      <c r="AA98" s="169"/>
-      <c r="AB98" s="169"/>
-      <c r="AC98" s="169"/>
-      <c r="AD98" s="169"/>
+      <c r="Z98" s="167"/>
+      <c r="AA98" s="167"/>
+      <c r="AB98" s="167"/>
+      <c r="AC98" s="167"/>
+      <c r="AD98" s="167"/>
     </row>
     <row r="99" spans="1:35" ht="16">
       <c r="A99"/>
@@ -8308,12 +8431,12 @@
       <c r="V99" s="128"/>
       <c r="W99" s="128"/>
       <c r="X99" s="128"/>
-      <c r="Y99" s="176"/>
-      <c r="Z99" s="169"/>
-      <c r="AA99" s="169"/>
-      <c r="AB99" s="169"/>
-      <c r="AC99" s="169"/>
-      <c r="AD99" s="169"/>
+      <c r="Y99" s="174"/>
+      <c r="Z99" s="167"/>
+      <c r="AA99" s="167"/>
+      <c r="AB99" s="167"/>
+      <c r="AC99" s="167"/>
+      <c r="AD99" s="167"/>
     </row>
     <row r="100" spans="1:35" ht="16">
       <c r="A100"/>
@@ -8340,12 +8463,12 @@
       <c r="V100"/>
       <c r="W100"/>
       <c r="X100"/>
-      <c r="Y100" s="176"/>
-      <c r="Z100" s="169"/>
-      <c r="AA100" s="169"/>
-      <c r="AB100" s="169"/>
-      <c r="AC100" s="169"/>
-      <c r="AD100" s="169"/>
+      <c r="Y100" s="174"/>
+      <c r="Z100" s="167"/>
+      <c r="AA100" s="167"/>
+      <c r="AB100" s="167"/>
+      <c r="AC100" s="167"/>
+      <c r="AD100" s="167"/>
     </row>
     <row r="101" spans="1:35" ht="16">
       <c r="A101"/>
@@ -8382,8 +8505,8 @@
     <row r="102" spans="1:35" ht="16">
       <c r="A102"/>
       <c r="B102" s="116"/>
-      <c r="C102" s="176"/>
-      <c r="D102" s="176"/>
+      <c r="C102" s="174"/>
+      <c r="D102" s="174"/>
       <c r="E102"/>
       <c r="F102"/>
       <c r="G102"/>
@@ -8391,68 +8514,68 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102"/>
-      <c r="L102" s="169"/>
-      <c r="M102" s="169"/>
-      <c r="N102" s="169"/>
-      <c r="O102" s="169"/>
-      <c r="P102" s="169"/>
-      <c r="Q102" s="169"/>
+      <c r="L102" s="167"/>
+      <c r="M102" s="167"/>
+      <c r="N102" s="167"/>
+      <c r="O102" s="167"/>
+      <c r="P102" s="167"/>
+      <c r="Q102" s="167"/>
       <c r="R102"/>
       <c r="S102"/>
-      <c r="T102" s="176"/>
-      <c r="U102" s="169"/>
-      <c r="V102" s="169"/>
-      <c r="W102" s="169"/>
-      <c r="X102" s="169"/>
+      <c r="T102" s="174"/>
+      <c r="U102" s="167"/>
+      <c r="V102" s="167"/>
+      <c r="W102" s="167"/>
+      <c r="X102" s="167"/>
       <c r="Y102" s="128"/>
-      <c r="Z102" s="176"/>
-      <c r="AA102" s="176"/>
-      <c r="AB102" s="176"/>
-      <c r="AC102" s="176"/>
-      <c r="AD102" s="176"/>
+      <c r="Z102" s="174"/>
+      <c r="AA102" s="174"/>
+      <c r="AB102" s="174"/>
+      <c r="AC102" s="174"/>
+      <c r="AD102" s="174"/>
     </row>
     <row r="103" spans="1:35" ht="16">
       <c r="A103"/>
       <c r="B103" s="116"/>
       <c r="C103" s="128"/>
       <c r="D103" s="128"/>
-      <c r="H103" s="157"/>
-      <c r="I103" s="157"/>
-      <c r="L103" s="170"/>
-      <c r="M103" s="169"/>
-      <c r="N103" s="169"/>
-      <c r="O103" s="169"/>
-      <c r="P103" s="169"/>
-      <c r="Q103" s="169"/>
+      <c r="H103" s="155"/>
+      <c r="I103" s="155"/>
+      <c r="L103" s="168"/>
+      <c r="M103" s="167"/>
+      <c r="N103" s="167"/>
+      <c r="O103" s="167"/>
+      <c r="P103" s="167"/>
+      <c r="Q103" s="167"/>
       <c r="T103" s="128"/>
-      <c r="U103" s="169"/>
-      <c r="V103" s="169"/>
-      <c r="W103" s="169"/>
-      <c r="X103" s="169"/>
-      <c r="Y103" s="176"/>
-      <c r="Z103" s="176"/>
-      <c r="AA103" s="176"/>
-      <c r="AB103" s="176"/>
-      <c r="AC103" s="176"/>
-      <c r="AD103" s="176"/>
+      <c r="U103" s="167"/>
+      <c r="V103" s="167"/>
+      <c r="W103" s="167"/>
+      <c r="X103" s="167"/>
+      <c r="Y103" s="174"/>
+      <c r="Z103" s="174"/>
+      <c r="AA103" s="174"/>
+      <c r="AB103" s="174"/>
+      <c r="AC103" s="174"/>
+      <c r="AD103" s="174"/>
     </row>
     <row r="104" spans="1:35" ht="16">
       <c r="A104"/>
       <c r="B104" s="116"/>
-      <c r="C104" s="176"/>
-      <c r="D104" s="176"/>
-      <c r="H104" s="157"/>
-      <c r="L104" s="170"/>
-      <c r="M104" s="169"/>
-      <c r="N104" s="169"/>
-      <c r="O104" s="169"/>
-      <c r="P104" s="169"/>
-      <c r="Q104" s="169"/>
-      <c r="T104" s="176"/>
-      <c r="U104" s="169"/>
-      <c r="V104" s="169"/>
-      <c r="W104" s="169"/>
-      <c r="X104" s="169"/>
+      <c r="C104" s="174"/>
+      <c r="D104" s="174"/>
+      <c r="H104" s="155"/>
+      <c r="L104" s="168"/>
+      <c r="M104" s="167"/>
+      <c r="N104" s="167"/>
+      <c r="O104" s="167"/>
+      <c r="P104" s="167"/>
+      <c r="Q104" s="167"/>
+      <c r="T104" s="174"/>
+      <c r="U104" s="167"/>
+      <c r="V104" s="167"/>
+      <c r="W104" s="167"/>
+      <c r="X104" s="167"/>
       <c r="Y104" s="128"/>
       <c r="Z104" s="128"/>
       <c r="AA104" s="128"/>
@@ -8463,51 +8586,51 @@
     <row r="105" spans="1:35" ht="16">
       <c r="A105"/>
       <c r="B105" s="116"/>
-      <c r="C105" s="176"/>
-      <c r="D105" s="176"/>
-      <c r="F105" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="L105" s="170"/>
-      <c r="M105" s="169"/>
-      <c r="N105" s="169"/>
-      <c r="O105" s="169"/>
-      <c r="P105" s="169"/>
-      <c r="Q105" s="169"/>
+      <c r="C105" s="174"/>
+      <c r="D105" s="174"/>
+      <c r="F105" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="L105" s="168"/>
+      <c r="M105" s="167"/>
+      <c r="N105" s="167"/>
+      <c r="O105" s="167"/>
+      <c r="P105" s="167"/>
+      <c r="Q105" s="167"/>
       <c r="T105" s="128"/>
-      <c r="U105" s="169"/>
-      <c r="V105" s="169"/>
-      <c r="W105" s="169"/>
-      <c r="X105" s="169"/>
-      <c r="Y105" s="176"/>
+      <c r="U105" s="167"/>
+      <c r="V105" s="167"/>
+      <c r="W105" s="167"/>
+      <c r="X105" s="167"/>
+      <c r="Y105" s="174"/>
       <c r="Z105" s="128"/>
       <c r="AA105" s="128"/>
       <c r="AB105" s="128"/>
       <c r="AC105" s="128"/>
-      <c r="AD105" s="176"/>
+      <c r="AD105" s="174"/>
     </row>
     <row r="106" spans="1:35" ht="16">
       <c r="A106"/>
       <c r="B106" s="116"/>
       <c r="C106" s="128"/>
       <c r="D106" s="128"/>
-      <c r="L106" s="170"/>
-      <c r="M106" s="169"/>
-      <c r="N106" s="169"/>
-      <c r="O106" s="169"/>
-      <c r="P106" s="169"/>
-      <c r="Q106" s="169"/>
-      <c r="T106" s="176"/>
-      <c r="U106" s="169"/>
-      <c r="V106" s="169"/>
-      <c r="W106" s="169"/>
-      <c r="X106" s="169"/>
-      <c r="Y106" s="176"/>
-      <c r="Z106" s="176"/>
-      <c r="AA106" s="176"/>
-      <c r="AB106" s="176"/>
-      <c r="AC106" s="176"/>
-      <c r="AD106" s="176"/>
+      <c r="L106" s="168"/>
+      <c r="M106" s="167"/>
+      <c r="N106" s="167"/>
+      <c r="O106" s="167"/>
+      <c r="P106" s="167"/>
+      <c r="Q106" s="167"/>
+      <c r="T106" s="174"/>
+      <c r="U106" s="167"/>
+      <c r="V106" s="167"/>
+      <c r="W106" s="167"/>
+      <c r="X106" s="167"/>
+      <c r="Y106" s="174"/>
+      <c r="Z106" s="174"/>
+      <c r="AA106" s="174"/>
+      <c r="AB106" s="174"/>
+      <c r="AC106" s="174"/>
+      <c r="AD106" s="174"/>
     </row>
     <row r="107" spans="1:35" ht="16">
       <c r="A107"/>
@@ -8517,73 +8640,73 @@
       <c r="G107" s="115">
         <v>13.5</v>
       </c>
-      <c r="H107" s="172" t="s">
-        <v>96</v>
-      </c>
-      <c r="L107" s="170"/>
-      <c r="M107" s="169"/>
-      <c r="N107" s="169"/>
-      <c r="O107" s="169"/>
-      <c r="P107" s="169"/>
-      <c r="Q107" s="169"/>
-      <c r="T107" s="176"/>
-      <c r="U107" s="169"/>
-      <c r="V107" s="169"/>
-      <c r="W107" s="169"/>
-      <c r="X107" s="169"/>
-      <c r="Y107" s="176"/>
-      <c r="Z107" s="169"/>
-      <c r="AA107" s="169"/>
-      <c r="AB107" s="169"/>
-      <c r="AC107" s="169"/>
-      <c r="AD107" s="169"/>
+      <c r="H107" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="L107" s="168"/>
+      <c r="M107" s="167"/>
+      <c r="N107" s="167"/>
+      <c r="O107" s="167"/>
+      <c r="P107" s="167"/>
+      <c r="Q107" s="167"/>
+      <c r="T107" s="174"/>
+      <c r="U107" s="167"/>
+      <c r="V107" s="167"/>
+      <c r="W107" s="167"/>
+      <c r="X107" s="167"/>
+      <c r="Y107" s="174"/>
+      <c r="Z107" s="167"/>
+      <c r="AA107" s="167"/>
+      <c r="AB107" s="167"/>
+      <c r="AC107" s="167"/>
+      <c r="AD107" s="167"/>
     </row>
     <row r="108" spans="1:35" ht="16">
       <c r="A108"/>
       <c r="B108" s="116"/>
-      <c r="C108" s="176"/>
-      <c r="D108" s="176"/>
+      <c r="C108" s="174"/>
+      <c r="D108" s="174"/>
       <c r="G108" s="115">
         <f>G107/3600</f>
         <v>3.7499999999999999E-3</v>
       </c>
-      <c r="H108" s="172" t="s">
-        <v>97</v>
-      </c>
-      <c r="L108" s="170"/>
-      <c r="M108" s="169"/>
-      <c r="N108" s="169"/>
-      <c r="O108" s="169"/>
-      <c r="P108" s="169"/>
-      <c r="Q108" s="169"/>
+      <c r="H108" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="L108" s="168"/>
+      <c r="M108" s="167"/>
+      <c r="N108" s="167"/>
+      <c r="O108" s="167"/>
+      <c r="P108" s="167"/>
+      <c r="Q108" s="167"/>
       <c r="T108" s="128"/>
       <c r="U108" s="128"/>
       <c r="V108" s="128"/>
       <c r="W108" s="128"/>
       <c r="X108" s="128"/>
-      <c r="Y108" s="176"/>
-      <c r="Z108" s="169"/>
-      <c r="AA108" s="169"/>
-      <c r="AB108" s="169"/>
-      <c r="AC108" s="169"/>
-      <c r="AD108" s="169"/>
+      <c r="Y108" s="174"/>
+      <c r="Z108" s="167"/>
+      <c r="AA108" s="167"/>
+      <c r="AB108" s="167"/>
+      <c r="AC108" s="167"/>
+      <c r="AD108" s="167"/>
     </row>
     <row r="109" spans="1:35" ht="16">
       <c r="A109"/>
       <c r="B109" s="116"/>
-      <c r="C109" s="176"/>
-      <c r="D109" s="176"/>
-      <c r="L109" s="170"/>
-      <c r="M109" s="169"/>
-      <c r="N109" s="169"/>
-      <c r="O109" s="169"/>
-      <c r="P109" s="169"/>
-      <c r="Q109" s="169"/>
+      <c r="C109" s="174"/>
+      <c r="D109" s="174"/>
+      <c r="L109" s="168"/>
+      <c r="M109" s="167"/>
+      <c r="N109" s="167"/>
+      <c r="O109" s="167"/>
+      <c r="P109" s="167"/>
+      <c r="Q109" s="167"/>
       <c r="T109" s="128"/>
-      <c r="U109" s="176"/>
-      <c r="V109" s="176"/>
-      <c r="W109" s="176"/>
-      <c r="X109" s="176"/>
+      <c r="U109" s="174"/>
+      <c r="V109" s="174"/>
+      <c r="W109" s="174"/>
+      <c r="X109" s="174"/>
       <c r="Y109" s="128"/>
       <c r="Z109" s="128"/>
       <c r="AA109" s="128"/>
@@ -8594,48 +8717,48 @@
     <row r="110" spans="1:35" ht="16">
       <c r="A110"/>
       <c r="B110" s="116"/>
-      <c r="C110" s="176"/>
-      <c r="D110" s="176"/>
-      <c r="L110" s="170"/>
-      <c r="M110" s="169"/>
-      <c r="N110" s="169"/>
-      <c r="O110" s="169"/>
-      <c r="P110" s="169"/>
-      <c r="Q110" s="169"/>
-      <c r="T110" s="176"/>
-      <c r="U110" s="176"/>
-      <c r="V110" s="176"/>
-      <c r="W110" s="176"/>
-      <c r="X110" s="176"/>
+      <c r="C110" s="174"/>
+      <c r="D110" s="174"/>
+      <c r="L110" s="168"/>
+      <c r="M110" s="167"/>
+      <c r="N110" s="167"/>
+      <c r="O110" s="167"/>
+      <c r="P110" s="167"/>
+      <c r="Q110" s="167"/>
+      <c r="T110" s="174"/>
+      <c r="U110" s="174"/>
+      <c r="V110" s="174"/>
+      <c r="W110" s="174"/>
+      <c r="X110" s="174"/>
       <c r="Y110" s="128"/>
-      <c r="Z110" s="176"/>
-      <c r="AA110" s="176"/>
-      <c r="AB110" s="176"/>
-      <c r="AC110" s="176"/>
-      <c r="AD110" s="176"/>
+      <c r="Z110" s="174"/>
+      <c r="AA110" s="174"/>
+      <c r="AB110" s="174"/>
+      <c r="AC110" s="174"/>
+      <c r="AD110" s="174"/>
     </row>
     <row r="111" spans="1:35" ht="16">
       <c r="A111"/>
       <c r="B111" s="116"/>
       <c r="C111" s="128"/>
       <c r="D111" s="128"/>
-      <c r="L111" s="170"/>
-      <c r="M111" s="169"/>
-      <c r="N111" s="169"/>
-      <c r="O111" s="169"/>
-      <c r="P111" s="169"/>
-      <c r="Q111" s="169"/>
+      <c r="L111" s="168"/>
+      <c r="M111" s="167"/>
+      <c r="N111" s="167"/>
+      <c r="O111" s="167"/>
+      <c r="P111" s="167"/>
+      <c r="Q111" s="167"/>
       <c r="T111" s="128"/>
       <c r="U111" s="128"/>
       <c r="V111" s="128"/>
       <c r="W111" s="128"/>
       <c r="X111" s="128"/>
-      <c r="Y111" s="176"/>
-      <c r="Z111" s="176"/>
-      <c r="AA111" s="176"/>
-      <c r="AB111" s="176"/>
-      <c r="AC111" s="176"/>
-      <c r="AD111" s="176"/>
+      <c r="Y111" s="174"/>
+      <c r="Z111" s="174"/>
+      <c r="AA111" s="174"/>
+      <c r="AB111" s="174"/>
+      <c r="AC111" s="174"/>
+      <c r="AD111" s="174"/>
       <c r="AE111"/>
       <c r="AF111"/>
       <c r="AG111"/>
@@ -8654,13 +8777,13 @@
       <c r="I112" s="128"/>
       <c r="J112" s="128"/>
       <c r="K112" s="128"/>
-      <c r="L112" s="170"/>
-      <c r="M112" s="169"/>
-      <c r="N112" s="169"/>
-      <c r="O112" s="169"/>
-      <c r="P112" s="169"/>
-      <c r="Q112" s="169"/>
-      <c r="T112" s="176"/>
+      <c r="L112" s="168"/>
+      <c r="M112" s="167"/>
+      <c r="N112" s="167"/>
+      <c r="O112" s="167"/>
+      <c r="P112" s="167"/>
+      <c r="Q112" s="167"/>
+      <c r="T112" s="174"/>
       <c r="U112" s="128"/>
       <c r="V112" s="128"/>
       <c r="W112" s="128"/>
@@ -8680,32 +8803,32 @@
     <row r="113" spans="1:35" ht="16">
       <c r="A113"/>
       <c r="B113" s="116"/>
-      <c r="C113" s="176"/>
-      <c r="D113" s="176"/>
-      <c r="E113" s="176"/>
-      <c r="F113" s="176"/>
-      <c r="G113" s="176"/>
-      <c r="H113" s="176"/>
-      <c r="I113" s="176"/>
-      <c r="J113" s="176"/>
-      <c r="K113" s="176"/>
-      <c r="L113" s="170"/>
-      <c r="M113" s="169"/>
-      <c r="N113" s="169"/>
-      <c r="O113" s="169"/>
-      <c r="P113" s="169"/>
-      <c r="Q113" s="169"/>
-      <c r="T113" s="176"/>
-      <c r="U113" s="176"/>
-      <c r="V113" s="176"/>
-      <c r="W113" s="176"/>
-      <c r="X113" s="176"/>
-      <c r="Y113" s="176"/>
+      <c r="C113" s="174"/>
+      <c r="D113" s="174"/>
+      <c r="E113" s="174"/>
+      <c r="F113" s="174"/>
+      <c r="G113" s="174"/>
+      <c r="H113" s="174"/>
+      <c r="I113" s="174"/>
+      <c r="J113" s="174"/>
+      <c r="K113" s="174"/>
+      <c r="L113" s="168"/>
+      <c r="M113" s="167"/>
+      <c r="N113" s="167"/>
+      <c r="O113" s="167"/>
+      <c r="P113" s="167"/>
+      <c r="Q113" s="167"/>
+      <c r="T113" s="174"/>
+      <c r="U113" s="174"/>
+      <c r="V113" s="174"/>
+      <c r="W113" s="174"/>
+      <c r="X113" s="174"/>
+      <c r="Y113" s="174"/>
       <c r="Z113" s="128"/>
       <c r="AA113" s="128"/>
       <c r="AB113" s="128"/>
       <c r="AC113" s="128"/>
-      <c r="AD113" s="176"/>
+      <c r="AD113" s="174"/>
       <c r="AE113" s="26"/>
       <c r="AF113" s="26"/>
       <c r="AG113" s="26"/>
@@ -8724,23 +8847,23 @@
       <c r="I114" s="128"/>
       <c r="J114" s="128"/>
       <c r="K114" s="128"/>
-      <c r="L114" s="170"/>
-      <c r="M114" s="169"/>
-      <c r="N114" s="169"/>
-      <c r="O114" s="169"/>
-      <c r="P114" s="169"/>
-      <c r="Q114" s="169"/>
+      <c r="L114" s="168"/>
+      <c r="M114" s="167"/>
+      <c r="N114" s="167"/>
+      <c r="O114" s="167"/>
+      <c r="P114" s="167"/>
+      <c r="Q114" s="167"/>
       <c r="T114" s="128"/>
-      <c r="U114" s="169"/>
-      <c r="V114" s="169"/>
-      <c r="W114" s="169"/>
-      <c r="X114" s="169"/>
-      <c r="Y114" s="176"/>
-      <c r="Z114" s="176"/>
-      <c r="AA114" s="176"/>
-      <c r="AB114" s="176"/>
-      <c r="AC114" s="176"/>
-      <c r="AD114" s="176"/>
+      <c r="U114" s="167"/>
+      <c r="V114" s="167"/>
+      <c r="W114" s="167"/>
+      <c r="X114" s="167"/>
+      <c r="Y114" s="174"/>
+      <c r="Z114" s="174"/>
+      <c r="AA114" s="174"/>
+      <c r="AB114" s="174"/>
+      <c r="AC114" s="174"/>
+      <c r="AD114" s="174"/>
       <c r="AE114"/>
       <c r="AF114"/>
       <c r="AG114"/>
@@ -8750,27 +8873,27 @@
     <row r="115" spans="1:35" ht="16">
       <c r="A115"/>
       <c r="B115" s="116"/>
-      <c r="C115" s="176"/>
-      <c r="D115" s="176"/>
-      <c r="E115" s="176"/>
-      <c r="F115" s="176"/>
-      <c r="G115" s="176"/>
-      <c r="H115" s="176"/>
-      <c r="I115" s="176"/>
-      <c r="J115" s="176"/>
-      <c r="K115" s="176"/>
-      <c r="L115" s="170"/>
-      <c r="M115" s="169"/>
-      <c r="N115" s="169"/>
-      <c r="O115" s="169"/>
-      <c r="P115" s="169"/>
-      <c r="Q115" s="169"/>
-      <c r="T115" s="176"/>
-      <c r="U115" s="169"/>
-      <c r="V115" s="169"/>
-      <c r="W115" s="169"/>
-      <c r="X115" s="169"/>
-      <c r="Y115" s="169"/>
+      <c r="C115" s="174"/>
+      <c r="D115" s="174"/>
+      <c r="E115" s="174"/>
+      <c r="F115" s="174"/>
+      <c r="G115" s="174"/>
+      <c r="H115" s="174"/>
+      <c r="I115" s="174"/>
+      <c r="J115" s="174"/>
+      <c r="K115" s="174"/>
+      <c r="L115" s="168"/>
+      <c r="M115" s="167"/>
+      <c r="N115" s="167"/>
+      <c r="O115" s="167"/>
+      <c r="P115" s="167"/>
+      <c r="Q115" s="167"/>
+      <c r="T115" s="174"/>
+      <c r="U115" s="167"/>
+      <c r="V115" s="167"/>
+      <c r="W115" s="167"/>
+      <c r="X115" s="167"/>
+      <c r="Y115" s="167"/>
       <c r="Z115"/>
       <c r="AA115"/>
       <c r="AB115"/>
@@ -8785,27 +8908,27 @@
     <row r="116" spans="1:35" ht="16">
       <c r="A116"/>
       <c r="B116" s="116"/>
-      <c r="C116" s="176"/>
-      <c r="D116" s="176"/>
-      <c r="E116" s="176"/>
-      <c r="F116" s="176"/>
-      <c r="G116" s="176"/>
-      <c r="H116" s="176"/>
-      <c r="I116" s="176"/>
-      <c r="J116" s="176"/>
-      <c r="K116" s="176"/>
-      <c r="L116" s="170"/>
-      <c r="M116" s="169"/>
-      <c r="N116" s="169"/>
-      <c r="O116" s="169"/>
-      <c r="P116" s="169"/>
-      <c r="Q116" s="169"/>
-      <c r="T116" s="176"/>
-      <c r="U116" s="169"/>
-      <c r="V116" s="169"/>
-      <c r="W116" s="169"/>
-      <c r="X116" s="169"/>
-      <c r="Y116" s="169"/>
+      <c r="C116" s="174"/>
+      <c r="D116" s="174"/>
+      <c r="E116" s="174"/>
+      <c r="F116" s="174"/>
+      <c r="G116" s="174"/>
+      <c r="H116" s="174"/>
+      <c r="I116" s="174"/>
+      <c r="J116" s="174"/>
+      <c r="K116" s="174"/>
+      <c r="L116" s="168"/>
+      <c r="M116" s="167"/>
+      <c r="N116" s="167"/>
+      <c r="O116" s="167"/>
+      <c r="P116" s="167"/>
+      <c r="Q116" s="167"/>
+      <c r="T116" s="174"/>
+      <c r="U116" s="167"/>
+      <c r="V116" s="167"/>
+      <c r="W116" s="167"/>
+      <c r="X116" s="167"/>
+      <c r="Y116" s="167"/>
       <c r="Z116"/>
       <c r="AA116"/>
       <c r="AB116"/>
@@ -8829,12 +8952,12 @@
       <c r="I117" s="128"/>
       <c r="J117" s="128"/>
       <c r="K117" s="128"/>
-      <c r="L117" s="170"/>
-      <c r="M117" s="169"/>
-      <c r="N117" s="169"/>
-      <c r="O117" s="169"/>
-      <c r="P117" s="169"/>
-      <c r="Q117" s="169"/>
+      <c r="L117" s="168"/>
+      <c r="M117" s="167"/>
+      <c r="N117" s="167"/>
+      <c r="O117" s="167"/>
+      <c r="P117" s="167"/>
+      <c r="Q117" s="167"/>
       <c r="T117" s="128"/>
       <c r="U117" s="128"/>
       <c r="V117" s="128"/>
@@ -8864,18 +8987,18 @@
       <c r="I118" s="128"/>
       <c r="J118" s="128"/>
       <c r="K118" s="128"/>
-      <c r="L118" s="170"/>
-      <c r="M118" s="169"/>
-      <c r="N118" s="169"/>
-      <c r="O118" s="169"/>
-      <c r="P118" s="169"/>
-      <c r="Q118" s="169"/>
+      <c r="L118" s="168"/>
+      <c r="M118" s="167"/>
+      <c r="N118" s="167"/>
+      <c r="O118" s="167"/>
+      <c r="P118" s="167"/>
+      <c r="Q118" s="167"/>
       <c r="T118" s="128"/>
-      <c r="U118" s="176"/>
-      <c r="V118" s="176"/>
-      <c r="W118" s="176"/>
-      <c r="X118" s="176"/>
-      <c r="Y118" s="176"/>
+      <c r="U118" s="174"/>
+      <c r="V118" s="174"/>
+      <c r="W118" s="174"/>
+      <c r="X118" s="174"/>
+      <c r="Y118" s="174"/>
       <c r="Z118"/>
       <c r="AA118"/>
       <c r="AB118"/>
@@ -8890,32 +9013,32 @@
     <row r="119" spans="1:35" ht="16">
       <c r="A119"/>
       <c r="B119" s="116"/>
-      <c r="C119" s="176"/>
-      <c r="D119" s="176"/>
-      <c r="E119" s="176"/>
+      <c r="C119" s="174"/>
+      <c r="D119" s="174"/>
+      <c r="E119" s="174"/>
       <c r="F119" s="128"/>
       <c r="G119" s="128"/>
-      <c r="H119" s="176"/>
-      <c r="I119" s="176"/>
-      <c r="J119" s="176"/>
+      <c r="H119" s="174"/>
+      <c r="I119" s="174"/>
+      <c r="J119" s="174"/>
       <c r="K119" s="128"/>
       <c r="L119" s="128"/>
-      <c r="M119" s="169"/>
-      <c r="N119" s="169"/>
-      <c r="O119" s="169"/>
-      <c r="P119" s="169"/>
-      <c r="Q119" s="169"/>
-      <c r="T119" s="176"/>
-      <c r="U119" s="176"/>
-      <c r="V119" s="176"/>
-      <c r="W119" s="176"/>
-      <c r="X119" s="176"/>
-      <c r="Y119" s="176"/>
-      <c r="Z119" s="169"/>
-      <c r="AA119" s="169"/>
-      <c r="AB119" s="169"/>
-      <c r="AC119" s="169"/>
-      <c r="AD119" s="169"/>
+      <c r="M119" s="167"/>
+      <c r="N119" s="167"/>
+      <c r="O119" s="167"/>
+      <c r="P119" s="167"/>
+      <c r="Q119" s="167"/>
+      <c r="T119" s="174"/>
+      <c r="U119" s="174"/>
+      <c r="V119" s="174"/>
+      <c r="W119" s="174"/>
+      <c r="X119" s="174"/>
+      <c r="Y119" s="174"/>
+      <c r="Z119" s="167"/>
+      <c r="AA119" s="167"/>
+      <c r="AB119" s="167"/>
+      <c r="AC119" s="167"/>
+      <c r="AD119" s="167"/>
       <c r="AE119"/>
       <c r="AF119"/>
       <c r="AG119"/>
@@ -8925,66 +9048,66 @@
     <row r="120" spans="1:35" ht="16">
       <c r="A120"/>
       <c r="B120" s="116"/>
-      <c r="C120" s="176"/>
-      <c r="D120" s="176"/>
-      <c r="E120" s="176"/>
-      <c r="F120" s="176"/>
-      <c r="G120" s="176"/>
+      <c r="C120" s="174"/>
+      <c r="D120" s="174"/>
+      <c r="E120" s="174"/>
+      <c r="F120" s="174"/>
+      <c r="G120" s="174"/>
       <c r="H120" s="128"/>
       <c r="I120" s="128"/>
       <c r="J120" s="128"/>
-      <c r="K120" s="176"/>
-      <c r="L120" s="176"/>
-      <c r="M120" s="169"/>
-      <c r="N120" s="169"/>
-      <c r="O120" s="169"/>
-      <c r="P120" s="169"/>
-      <c r="Q120" s="176"/>
-      <c r="R120" s="169"/>
-      <c r="S120" s="169"/>
+      <c r="K120" s="174"/>
+      <c r="L120" s="174"/>
+      <c r="M120" s="167"/>
+      <c r="N120" s="167"/>
+      <c r="O120" s="167"/>
+      <c r="P120" s="167"/>
+      <c r="Q120" s="174"/>
+      <c r="R120" s="167"/>
+      <c r="S120" s="167"/>
       <c r="T120" s="128"/>
       <c r="U120" s="128"/>
       <c r="V120" s="128"/>
       <c r="W120" s="128"/>
       <c r="X120" s="128"/>
       <c r="Y120" s="128"/>
-      <c r="Z120" s="169"/>
-      <c r="AA120" s="169"/>
-      <c r="AB120" s="169"/>
-      <c r="AC120" s="169"/>
-      <c r="AD120" s="169"/>
+      <c r="Z120" s="167"/>
+      <c r="AA120" s="167"/>
+      <c r="AB120" s="167"/>
+      <c r="AC120" s="167"/>
+      <c r="AD120" s="167"/>
     </row>
     <row r="121" spans="1:35" ht="16">
       <c r="A121"/>
       <c r="B121" s="116"/>
-      <c r="C121" s="176"/>
-      <c r="D121" s="176"/>
-      <c r="E121" s="176"/>
+      <c r="C121" s="174"/>
+      <c r="D121" s="174"/>
+      <c r="E121" s="174"/>
       <c r="F121" s="128"/>
       <c r="G121" s="128"/>
-      <c r="H121" s="176"/>
-      <c r="I121" s="176"/>
-      <c r="J121" s="176"/>
+      <c r="H121" s="174"/>
+      <c r="I121" s="174"/>
+      <c r="J121" s="174"/>
       <c r="K121" s="128"/>
       <c r="L121" s="128"/>
-      <c r="M121" s="169"/>
-      <c r="N121" s="169"/>
-      <c r="O121" s="169"/>
-      <c r="P121" s="169"/>
+      <c r="M121" s="167"/>
+      <c r="N121" s="167"/>
+      <c r="O121" s="167"/>
+      <c r="P121" s="167"/>
       <c r="Q121" s="128"/>
-      <c r="R121" s="169"/>
-      <c r="S121" s="169"/>
-      <c r="T121" s="176"/>
+      <c r="R121" s="167"/>
+      <c r="S121" s="167"/>
+      <c r="T121" s="174"/>
       <c r="U121" s="128"/>
       <c r="V121" s="128"/>
       <c r="W121" s="128"/>
       <c r="X121" s="128"/>
-      <c r="Y121" s="176"/>
-      <c r="Z121" s="169"/>
-      <c r="AA121" s="169"/>
-      <c r="AB121" s="169"/>
-      <c r="AC121" s="169"/>
-      <c r="AD121" s="169"/>
+      <c r="Y121" s="174"/>
+      <c r="Z121" s="167"/>
+      <c r="AA121" s="167"/>
+      <c r="AB121" s="167"/>
+      <c r="AC121" s="167"/>
+      <c r="AD121" s="167"/>
     </row>
     <row r="122" spans="1:35" ht="16">
       <c r="A122"/>
@@ -8994,29 +9117,29 @@
       <c r="E122" s="128"/>
       <c r="F122" s="128"/>
       <c r="G122" s="128"/>
-      <c r="H122" s="176"/>
-      <c r="I122" s="176"/>
-      <c r="J122" s="176"/>
-      <c r="K122" s="176"/>
-      <c r="L122" s="176"/>
-      <c r="M122" s="169"/>
-      <c r="N122" s="169"/>
-      <c r="O122" s="169"/>
-      <c r="P122" s="169"/>
-      <c r="Q122" s="176"/>
-      <c r="R122" s="169"/>
-      <c r="S122" s="169"/>
-      <c r="T122" s="176"/>
-      <c r="U122" s="169"/>
-      <c r="V122" s="169"/>
-      <c r="W122" s="169"/>
-      <c r="X122" s="169"/>
-      <c r="Y122" s="176"/>
-      <c r="Z122" s="169"/>
-      <c r="AA122" s="169"/>
-      <c r="AB122" s="169"/>
-      <c r="AC122" s="169"/>
-      <c r="AD122" s="169"/>
+      <c r="H122" s="174"/>
+      <c r="I122" s="174"/>
+      <c r="J122" s="174"/>
+      <c r="K122" s="174"/>
+      <c r="L122" s="174"/>
+      <c r="M122" s="167"/>
+      <c r="N122" s="167"/>
+      <c r="O122" s="167"/>
+      <c r="P122" s="167"/>
+      <c r="Q122" s="174"/>
+      <c r="R122" s="167"/>
+      <c r="S122" s="167"/>
+      <c r="T122" s="174"/>
+      <c r="U122" s="167"/>
+      <c r="V122" s="167"/>
+      <c r="W122" s="167"/>
+      <c r="X122" s="167"/>
+      <c r="Y122" s="174"/>
+      <c r="Z122" s="167"/>
+      <c r="AA122" s="167"/>
+      <c r="AB122" s="167"/>
+      <c r="AC122" s="167"/>
+      <c r="AD122" s="167"/>
     </row>
     <row r="123" spans="1:35" ht="16">
       <c r="A123"/>
@@ -9024,95 +9147,95 @@
       <c r="C123" s="128"/>
       <c r="D123" s="128"/>
       <c r="E123" s="128"/>
-      <c r="F123" s="176"/>
-      <c r="G123" s="176"/>
+      <c r="F123" s="174"/>
+      <c r="G123" s="174"/>
       <c r="H123" s="128"/>
       <c r="I123" s="128"/>
       <c r="J123" s="128"/>
       <c r="K123" s="128"/>
       <c r="L123" s="128"/>
-      <c r="M123" s="169"/>
-      <c r="N123" s="169"/>
-      <c r="O123" s="169"/>
-      <c r="P123" s="169"/>
-      <c r="Q123" s="176"/>
-      <c r="R123" s="169"/>
-      <c r="S123" s="169"/>
-      <c r="T123" s="176"/>
-      <c r="U123" s="169"/>
-      <c r="V123" s="169"/>
-      <c r="W123" s="169"/>
-      <c r="X123" s="169"/>
-      <c r="Y123" s="176"/>
-      <c r="Z123" s="169"/>
-      <c r="AA123" s="169"/>
-      <c r="AB123" s="169"/>
-      <c r="AC123" s="169"/>
-      <c r="AD123" s="169"/>
+      <c r="M123" s="167"/>
+      <c r="N123" s="167"/>
+      <c r="O123" s="167"/>
+      <c r="P123" s="167"/>
+      <c r="Q123" s="174"/>
+      <c r="R123" s="167"/>
+      <c r="S123" s="167"/>
+      <c r="T123" s="174"/>
+      <c r="U123" s="167"/>
+      <c r="V123" s="167"/>
+      <c r="W123" s="167"/>
+      <c r="X123" s="167"/>
+      <c r="Y123" s="174"/>
+      <c r="Z123" s="167"/>
+      <c r="AA123" s="167"/>
+      <c r="AB123" s="167"/>
+      <c r="AC123" s="167"/>
+      <c r="AD123" s="167"/>
     </row>
     <row r="124" spans="1:35" ht="16">
       <c r="A124"/>
       <c r="B124" s="116"/>
-      <c r="C124" s="176"/>
-      <c r="D124" s="176"/>
-      <c r="E124" s="176"/>
+      <c r="C124" s="174"/>
+      <c r="D124" s="174"/>
+      <c r="E124" s="174"/>
       <c r="F124" s="128"/>
       <c r="G124" s="128"/>
       <c r="H124" s="128"/>
       <c r="I124" s="128"/>
       <c r="J124" s="128"/>
-      <c r="K124" s="176"/>
-      <c r="L124" s="176"/>
-      <c r="M124" s="169"/>
-      <c r="N124" s="169"/>
-      <c r="O124" s="169"/>
-      <c r="P124" s="169"/>
+      <c r="K124" s="174"/>
+      <c r="L124" s="174"/>
+      <c r="M124" s="167"/>
+      <c r="N124" s="167"/>
+      <c r="O124" s="167"/>
+      <c r="P124" s="167"/>
       <c r="Q124" s="128"/>
       <c r="R124" s="128"/>
       <c r="S124" s="128"/>
       <c r="T124" s="128"/>
-      <c r="U124" s="169"/>
-      <c r="V124" s="169"/>
-      <c r="W124" s="169"/>
-      <c r="X124" s="169"/>
+      <c r="U124" s="167"/>
+      <c r="V124" s="167"/>
+      <c r="W124" s="167"/>
+      <c r="X124" s="167"/>
       <c r="Y124" s="128"/>
-      <c r="Z124" s="169"/>
-      <c r="AA124" s="169"/>
-      <c r="AB124" s="169"/>
-      <c r="AC124" s="169"/>
-      <c r="AD124" s="169"/>
+      <c r="Z124" s="167"/>
+      <c r="AA124" s="167"/>
+      <c r="AB124" s="167"/>
+      <c r="AC124" s="167"/>
+      <c r="AD124" s="167"/>
     </row>
     <row r="125" spans="1:35" ht="16">
       <c r="A125"/>
       <c r="B125" s="116"/>
-      <c r="C125" s="176"/>
-      <c r="D125" s="176"/>
-      <c r="E125" s="176"/>
-      <c r="F125" s="176"/>
-      <c r="G125" s="176"/>
-      <c r="H125" s="176"/>
-      <c r="I125" s="176"/>
-      <c r="J125" s="176"/>
-      <c r="K125" s="176"/>
-      <c r="L125" s="176"/>
-      <c r="M125" s="169"/>
-      <c r="N125" s="169"/>
-      <c r="O125" s="169"/>
-      <c r="P125" s="169"/>
+      <c r="C125" s="174"/>
+      <c r="D125" s="174"/>
+      <c r="E125" s="174"/>
+      <c r="F125" s="174"/>
+      <c r="G125" s="174"/>
+      <c r="H125" s="174"/>
+      <c r="I125" s="174"/>
+      <c r="J125" s="174"/>
+      <c r="K125" s="174"/>
+      <c r="L125" s="174"/>
+      <c r="M125" s="167"/>
+      <c r="N125" s="167"/>
+      <c r="O125" s="167"/>
+      <c r="P125" s="167"/>
       <c r="Q125" s="128"/>
-      <c r="R125" s="176"/>
-      <c r="S125" s="176"/>
-      <c r="T125" s="176"/>
-      <c r="U125" s="169"/>
-      <c r="V125" s="169"/>
-      <c r="W125" s="169"/>
-      <c r="X125" s="169"/>
-      <c r="Y125" s="176"/>
-      <c r="Z125" s="169"/>
-      <c r="AA125" s="169"/>
-      <c r="AB125" s="169"/>
-      <c r="AC125" s="169"/>
-      <c r="AD125" s="169"/>
+      <c r="R125" s="174"/>
+      <c r="S125" s="174"/>
+      <c r="T125" s="174"/>
+      <c r="U125" s="167"/>
+      <c r="V125" s="167"/>
+      <c r="W125" s="167"/>
+      <c r="X125" s="167"/>
+      <c r="Y125" s="174"/>
+      <c r="Z125" s="167"/>
+      <c r="AA125" s="167"/>
+      <c r="AB125" s="167"/>
+      <c r="AC125" s="167"/>
+      <c r="AD125" s="167"/>
     </row>
     <row r="126" spans="1:35" ht="16">
       <c r="A126"/>
@@ -9120,38 +9243,38 @@
       <c r="C126" s="128"/>
       <c r="D126" s="128"/>
       <c r="E126" s="128"/>
-      <c r="F126" s="176"/>
-      <c r="G126" s="176"/>
-      <c r="H126" s="176"/>
-      <c r="I126" s="176"/>
-      <c r="J126" s="176"/>
+      <c r="F126" s="174"/>
+      <c r="G126" s="174"/>
+      <c r="H126" s="174"/>
+      <c r="I126" s="174"/>
+      <c r="J126" s="174"/>
       <c r="K126" s="128"/>
       <c r="L126" s="128"/>
       <c r="M126" s="128"/>
       <c r="N126" s="128"/>
       <c r="O126" s="128"/>
       <c r="P126" s="128"/>
-      <c r="Q126" s="176"/>
-      <c r="R126" s="176"/>
-      <c r="S126" s="176"/>
-      <c r="T126" s="176"/>
-      <c r="U126" s="169"/>
-      <c r="V126" s="169"/>
-      <c r="W126" s="169"/>
-      <c r="X126" s="169"/>
-      <c r="Y126" s="176"/>
-      <c r="Z126" s="169"/>
-      <c r="AA126" s="169"/>
-      <c r="AB126" s="169"/>
-      <c r="AC126" s="169"/>
-      <c r="AD126" s="169"/>
+      <c r="Q126" s="174"/>
+      <c r="R126" s="174"/>
+      <c r="S126" s="174"/>
+      <c r="T126" s="174"/>
+      <c r="U126" s="167"/>
+      <c r="V126" s="167"/>
+      <c r="W126" s="167"/>
+      <c r="X126" s="167"/>
+      <c r="Y126" s="174"/>
+      <c r="Z126" s="167"/>
+      <c r="AA126" s="167"/>
+      <c r="AB126" s="167"/>
+      <c r="AC126" s="167"/>
+      <c r="AD126" s="167"/>
     </row>
     <row r="127" spans="1:35" ht="16">
       <c r="A127"/>
       <c r="B127" s="116"/>
-      <c r="C127" s="176"/>
-      <c r="D127" s="176"/>
-      <c r="E127" s="176"/>
+      <c r="C127" s="174"/>
+      <c r="D127" s="174"/>
+      <c r="E127" s="174"/>
       <c r="F127" s="128"/>
       <c r="G127" s="128"/>
       <c r="H127" s="128"/>
@@ -9159,10 +9282,10 @@
       <c r="J127" s="128"/>
       <c r="K127" s="128"/>
       <c r="L127" s="128"/>
-      <c r="M127" s="176"/>
-      <c r="N127" s="176"/>
-      <c r="O127" s="176"/>
-      <c r="P127" s="176"/>
+      <c r="M127" s="174"/>
+      <c r="N127" s="174"/>
+      <c r="O127" s="174"/>
+      <c r="P127" s="174"/>
       <c r="Q127" s="128"/>
       <c r="R127" s="128"/>
       <c r="S127" s="128"/>
@@ -9181,34 +9304,34 @@
     <row r="128" spans="1:35" ht="16">
       <c r="A128"/>
       <c r="B128" s="128"/>
-      <c r="C128" s="176"/>
-      <c r="D128" s="176"/>
-      <c r="E128" s="176"/>
+      <c r="C128" s="174"/>
+      <c r="D128" s="174"/>
+      <c r="E128" s="174"/>
       <c r="F128" s="128"/>
       <c r="G128" s="128"/>
       <c r="H128" s="128"/>
       <c r="I128" s="128"/>
       <c r="J128" s="128"/>
-      <c r="K128" s="176"/>
-      <c r="L128" s="176"/>
-      <c r="M128" s="176"/>
-      <c r="N128" s="176"/>
-      <c r="O128" s="176"/>
-      <c r="P128" s="176"/>
-      <c r="Q128" s="176"/>
+      <c r="K128" s="174"/>
+      <c r="L128" s="174"/>
+      <c r="M128" s="174"/>
+      <c r="N128" s="174"/>
+      <c r="O128" s="174"/>
+      <c r="P128" s="174"/>
+      <c r="Q128" s="174"/>
       <c r="R128" s="128"/>
       <c r="S128" s="128"/>
       <c r="T128" s="128"/>
-      <c r="U128" s="176"/>
-      <c r="V128" s="176"/>
-      <c r="W128" s="176"/>
-      <c r="X128" s="176"/>
+      <c r="U128" s="174"/>
+      <c r="V128" s="174"/>
+      <c r="W128" s="174"/>
+      <c r="X128" s="174"/>
       <c r="Y128" s="128"/>
-      <c r="Z128" s="176"/>
-      <c r="AA128" s="176"/>
-      <c r="AB128" s="176"/>
-      <c r="AC128" s="176"/>
-      <c r="AD128" s="176"/>
+      <c r="Z128" s="174"/>
+      <c r="AA128" s="174"/>
+      <c r="AB128" s="174"/>
+      <c r="AC128" s="174"/>
+      <c r="AD128" s="174"/>
     </row>
     <row r="129" spans="1:35" ht="16">
       <c r="A129" s="128"/>
@@ -9216,31 +9339,31 @@
       <c r="C129" s="128"/>
       <c r="D129" s="128"/>
       <c r="E129" s="128"/>
-      <c r="F129" s="176"/>
-      <c r="G129" s="176"/>
-      <c r="H129" s="176"/>
-      <c r="I129" s="176"/>
-      <c r="J129" s="176"/>
+      <c r="F129" s="174"/>
+      <c r="G129" s="174"/>
+      <c r="H129" s="174"/>
+      <c r="I129" s="174"/>
+      <c r="J129" s="174"/>
       <c r="K129" s="128"/>
       <c r="L129" s="128"/>
       <c r="M129" s="128"/>
       <c r="N129" s="128"/>
       <c r="O129" s="128"/>
       <c r="P129" s="128"/>
-      <c r="Q129" s="176"/>
-      <c r="R129" s="176"/>
-      <c r="S129" s="176"/>
-      <c r="T129" s="176"/>
-      <c r="U129" s="176"/>
-      <c r="V129" s="176"/>
-      <c r="W129" s="176"/>
-      <c r="X129" s="176"/>
-      <c r="Y129" s="176"/>
-      <c r="Z129" s="176"/>
-      <c r="AA129" s="176"/>
-      <c r="AB129" s="176"/>
-      <c r="AC129" s="176"/>
-      <c r="AD129" s="176"/>
+      <c r="Q129" s="174"/>
+      <c r="R129" s="174"/>
+      <c r="S129" s="174"/>
+      <c r="T129" s="174"/>
+      <c r="U129" s="174"/>
+      <c r="V129" s="174"/>
+      <c r="W129" s="174"/>
+      <c r="X129" s="174"/>
+      <c r="Y129" s="174"/>
+      <c r="Z129" s="174"/>
+      <c r="AA129" s="174"/>
+      <c r="AB129" s="174"/>
+      <c r="AC129" s="174"/>
+      <c r="AD129" s="174"/>
     </row>
     <row r="130" spans="1:35" ht="16">
       <c r="A130" s="128"/>
@@ -9249,19 +9372,19 @@
       <c r="D130" s="128"/>
       <c r="E130" s="128"/>
       <c r="F130" s="128"/>
-      <c r="G130" s="176"/>
-      <c r="H130" s="176"/>
-      <c r="I130" s="176"/>
-      <c r="J130" s="176"/>
-      <c r="K130" s="176"/>
-      <c r="L130" s="176"/>
+      <c r="G130" s="174"/>
+      <c r="H130" s="174"/>
+      <c r="I130" s="174"/>
+      <c r="J130" s="174"/>
+      <c r="K130" s="174"/>
+      <c r="L130" s="174"/>
       <c r="M130" s="128"/>
       <c r="N130" s="128"/>
       <c r="O130" s="128"/>
       <c r="P130" s="128"/>
-      <c r="Q130" s="176"/>
-      <c r="R130" s="176"/>
-      <c r="S130" s="176"/>
+      <c r="Q130" s="174"/>
+      <c r="R130" s="174"/>
+      <c r="S130" s="174"/>
       <c r="T130" s="128"/>
       <c r="U130" s="128"/>
       <c r="V130" s="128"/>
@@ -9275,68 +9398,68 @@
       <c r="AD130" s="128"/>
     </row>
     <row r="131" spans="1:35" ht="16">
-      <c r="A131" s="176"/>
-      <c r="B131" s="176"/>
-      <c r="C131" s="176"/>
-      <c r="D131" s="176"/>
-      <c r="E131" s="176"/>
-      <c r="F131" s="176"/>
-      <c r="G131" s="176"/>
-      <c r="H131" s="176"/>
-      <c r="I131" s="176"/>
-      <c r="J131" s="176"/>
-      <c r="K131" s="176"/>
-      <c r="L131" s="176"/>
-      <c r="M131" s="176"/>
-      <c r="N131" s="176"/>
-      <c r="O131" s="176"/>
-      <c r="P131" s="176"/>
-      <c r="Q131" s="176"/>
-      <c r="R131" s="176"/>
-      <c r="S131" s="176"/>
-      <c r="T131" s="176"/>
+      <c r="A131" s="174"/>
+      <c r="B131" s="174"/>
+      <c r="C131" s="174"/>
+      <c r="D131" s="174"/>
+      <c r="E131" s="174"/>
+      <c r="F131" s="174"/>
+      <c r="G131" s="174"/>
+      <c r="H131" s="174"/>
+      <c r="I131" s="174"/>
+      <c r="J131" s="174"/>
+      <c r="K131" s="174"/>
+      <c r="L131" s="174"/>
+      <c r="M131" s="174"/>
+      <c r="N131" s="174"/>
+      <c r="O131" s="174"/>
+      <c r="P131" s="174"/>
+      <c r="Q131" s="174"/>
+      <c r="R131" s="174"/>
+      <c r="S131" s="174"/>
+      <c r="T131" s="174"/>
       <c r="U131" s="128"/>
       <c r="V131" s="128"/>
       <c r="W131" s="128"/>
       <c r="X131" s="128"/>
-      <c r="Y131" s="176"/>
+      <c r="Y131" s="174"/>
       <c r="Z131" s="128"/>
       <c r="AA131" s="128"/>
       <c r="AB131" s="128"/>
       <c r="AC131" s="128"/>
-      <c r="AD131" s="176"/>
+      <c r="AD131" s="174"/>
     </row>
     <row r="132" spans="1:35" ht="16">
-      <c r="A132" s="176"/>
-      <c r="B132" s="176"/>
-      <c r="C132" s="176"/>
-      <c r="D132" s="176"/>
-      <c r="E132" s="176"/>
-      <c r="F132" s="176"/>
-      <c r="G132" s="176"/>
-      <c r="H132" s="176"/>
-      <c r="I132" s="176"/>
-      <c r="J132" s="176"/>
-      <c r="K132" s="176"/>
-      <c r="L132" s="176"/>
-      <c r="M132" s="176"/>
-      <c r="N132" s="176"/>
-      <c r="O132" s="176"/>
-      <c r="P132" s="176"/>
-      <c r="Q132" s="176"/>
-      <c r="R132" s="176"/>
-      <c r="S132" s="176"/>
-      <c r="T132" s="176"/>
-      <c r="U132" s="176"/>
-      <c r="V132" s="176"/>
-      <c r="W132" s="176"/>
-      <c r="X132" s="176"/>
-      <c r="Y132" s="176"/>
-      <c r="Z132" s="176"/>
-      <c r="AA132" s="176"/>
-      <c r="AB132" s="176"/>
-      <c r="AC132" s="176"/>
-      <c r="AD132" s="176"/>
+      <c r="A132" s="174"/>
+      <c r="B132" s="174"/>
+      <c r="C132" s="174"/>
+      <c r="D132" s="174"/>
+      <c r="E132" s="174"/>
+      <c r="F132" s="174"/>
+      <c r="G132" s="174"/>
+      <c r="H132" s="174"/>
+      <c r="I132" s="174"/>
+      <c r="J132" s="174"/>
+      <c r="K132" s="174"/>
+      <c r="L132" s="174"/>
+      <c r="M132" s="174"/>
+      <c r="N132" s="174"/>
+      <c r="O132" s="174"/>
+      <c r="P132" s="174"/>
+      <c r="Q132" s="174"/>
+      <c r="R132" s="174"/>
+      <c r="S132" s="174"/>
+      <c r="T132" s="174"/>
+      <c r="U132" s="174"/>
+      <c r="V132" s="174"/>
+      <c r="W132" s="174"/>
+      <c r="X132" s="174"/>
+      <c r="Y132" s="174"/>
+      <c r="Z132" s="174"/>
+      <c r="AA132" s="174"/>
+      <c r="AB132" s="174"/>
+      <c r="AC132" s="174"/>
+      <c r="AD132" s="174"/>
     </row>
     <row r="139" spans="1:35" customFormat="1" ht="16">
       <c r="A139" s="115"/>
@@ -9685,6 +9808,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9702,55 +9826,55 @@
     <col min="9" max="9" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="157" customFormat="1" ht="15">
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
-      <c r="F1" s="158"/>
-      <c r="G1" s="158"/>
-    </row>
-    <row r="2" spans="2:9" s="157" customFormat="1" ht="15" customHeight="1">
-      <c r="B2" s="184" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-    </row>
-    <row r="3" spans="2:9" s="157" customFormat="1" ht="15">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-    </row>
-    <row r="4" spans="2:9" s="157" customFormat="1" ht="15">
-      <c r="B4" s="196"/>
-      <c r="C4" s="197"/>
-      <c r="D4" s="197"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-    </row>
-    <row r="5" spans="2:9" s="157" customFormat="1" thickBot="1">
-      <c r="D5" s="158"/>
-    </row>
-    <row r="6" spans="2:9" s="157" customFormat="1" ht="15">
-      <c r="B6" s="159"/>
+    <row r="1" spans="2:9" s="155" customFormat="1" ht="15">
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+    </row>
+    <row r="2" spans="2:9" s="155" customFormat="1" ht="15" customHeight="1">
+      <c r="B2" s="186" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+    </row>
+    <row r="3" spans="2:9" s="155" customFormat="1" ht="15">
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+    </row>
+    <row r="4" spans="2:9" s="155" customFormat="1" ht="15">
+      <c r="B4" s="198"/>
+      <c r="C4" s="199"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+    </row>
+    <row r="5" spans="2:9" s="155" customFormat="1" thickBot="1">
+      <c r="D5" s="156"/>
+    </row>
+    <row r="6" spans="2:9" s="155" customFormat="1" ht="15">
+      <c r="B6" s="157"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="160"/>
+      <c r="I6" s="158"/>
     </row>
     <row r="7" spans="2:9" s="45" customFormat="1" ht="18">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>5</v>
@@ -9762,7 +9886,7 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>0</v>
@@ -9775,23 +9899,23 @@
     </row>
     <row r="9" spans="2:9" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="159" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="E9" s="160">
+        <v>1.0965</v>
+      </c>
+      <c r="F9" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="162">
-        <v>1.0965</v>
-      </c>
-      <c r="F9" s="161" t="s">
+      <c r="G9" s="161">
+        <v>42412</v>
+      </c>
+      <c r="H9" s="162" t="s">
         <v>79</v>
-      </c>
-      <c r="G9" s="163">
-        <v>42412</v>
-      </c>
-      <c r="H9" s="164" t="s">
-        <v>80</v>
       </c>
       <c r="I9" s="46"/>
     </row>

--- a/carriers_source_analyses/natural_gas.carrier.xlsx
+++ b/carriers_source_analyses/natural_gas.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="36140" yWindow="-1140" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -48,8 +53,11 @@
     <definedName name="WP_to_MWp" localSheetId="6">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -273,9 +281,6 @@
     <t>Carrier (global properties)</t>
   </si>
   <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
-  </si>
-  <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
@@ -391,6 +396,11 @@
   </si>
   <si>
     <t>from russia</t>
+  </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +417,7 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -636,11 +646,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -744,7 +749,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -994,37 +999,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1378,7 +1352,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1726,13 +1700,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1758,22 +1732,13 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1782,7 +1747,16 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2208,145 +2182,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>25400</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3073" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3073"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>165100</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3075" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s3075"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2504,7 +2348,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2617,11 +2461,13 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
+      <sheetName val="carrier_manager"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -2630,6 +2476,8 @@
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2964,51 +2812,51 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3017,17 +2865,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="88" t="s">
         <v>15</v>
@@ -3035,13 +2883,13 @@
       <c r="C9" s="89"/>
       <c r="D9" s="150"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="90"/>
       <c r="C10" s="91"/>
       <c r="D10" s="151"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="90" t="s">
         <v>16</v>
@@ -3051,7 +2899,7 @@
       </c>
       <c r="D11" s="151"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="90"/>
       <c r="C12" s="20" t="s">
@@ -3059,7 +2907,7 @@
       </c>
       <c r="D12" s="151"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="90"/>
       <c r="C13" s="93" t="s">
@@ -3067,7 +2915,7 @@
       </c>
       <c r="D13" s="151"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="90"/>
       <c r="C14" s="91" t="s">
@@ -3075,13 +2923,13 @@
       </c>
       <c r="D14" s="151"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="90"/>
       <c r="C15" s="91"/>
       <c r="D15" s="151"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="90" t="s">
         <v>21</v>
@@ -3091,7 +2939,7 @@
       </c>
       <c r="D16" s="151"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="90"/>
       <c r="C17" s="95" t="s">
@@ -3099,7 +2947,7 @@
       </c>
       <c r="D17" s="151"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="90"/>
       <c r="C18" s="96" t="s">
@@ -3107,7 +2955,7 @@
       </c>
       <c r="D18" s="151"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="90"/>
       <c r="C19" s="97" t="s">
@@ -3115,7 +2963,7 @@
       </c>
       <c r="D19" s="151"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="98"/>
       <c r="C20" s="99" t="s">
@@ -3123,7 +2971,7 @@
       </c>
       <c r="D20" s="151"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="98"/>
       <c r="C21" s="100" t="s">
@@ -3131,7 +2979,7 @@
       </c>
       <c r="D21" s="151"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="98"/>
       <c r="C22" s="101" t="s">
@@ -3139,14 +2987,14 @@
       </c>
       <c r="D22" s="151"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="102" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="151"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="152"/>
       <c r="C24" s="153"/>
       <c r="D24" s="154"/>
@@ -3154,74 +3002,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="186" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="198"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="189"/>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
-      <c r="E3" s="191"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="199"/>
+    </row>
+    <row r="4" spans="2:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="200"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3232,7 +3077,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -3253,7 +3098,7 @@
       </c>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -3264,7 +3109,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="149" t="s">
         <v>70</v>
@@ -3277,7 +3122,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="113" t="s">
         <v>37</v>
@@ -3299,7 +3144,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="121" t="s">
         <v>38</v>
@@ -3315,11 +3160,11 @@
       <c r="G11" s="121"/>
       <c r="H11" s="32"/>
       <c r="I11" s="181" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="121" t="s">
         <v>69</v>
@@ -3339,10 +3184,10 @@
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="166" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>67</v>
@@ -3359,7 +3204,7 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:10" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="37" t="s">
         <v>39</v>
@@ -3379,7 +3224,7 @@
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="42"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -3392,70 +3237,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3073" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>25400</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="3075" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>165100</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3470,30 +3255,30 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="186" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
@@ -3501,7 +3286,7 @@
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="189"/>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
@@ -3509,18 +3294,18 @@
       <c r="F3" s="36"/>
       <c r="G3" s="148"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="194"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -3531,7 +3316,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -3552,7 +3337,7 @@
       </c>
       <c r="J7" s="107"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="41"/>
       <c r="C8" s="81"/>
       <c r="D8" s="105"/>
@@ -3563,7 +3348,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="108"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>36</v>
@@ -3576,14 +3361,14 @@
       <c r="I9" s="36"/>
       <c r="J9" s="108"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="41"/>
       <c r="J10" s="108"/>
     </row>
-    <row r="11" spans="2:10" ht="16" thickBot="1">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41"/>
       <c r="C11" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
@@ -3593,7 +3378,7 @@
       <c r="I11" s="121"/>
       <c r="J11" s="108"/>
     </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="185" t="s">
         <v>42</v>
@@ -3615,7 +3400,7 @@
       </c>
       <c r="J12" s="108"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="185" t="s">
         <v>43</v>
@@ -3637,7 +3422,7 @@
       </c>
       <c r="J13" s="108"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="185" t="s">
         <v>46</v>
@@ -3659,7 +3444,7 @@
       </c>
       <c r="J14" s="108"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="185" t="s">
         <v>45</v>
@@ -3681,7 +3466,7 @@
       </c>
       <c r="J15" s="108"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="185" t="s">
         <v>39</v>
@@ -3703,7 +3488,7 @@
       </c>
       <c r="J16" s="108"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="185" t="s">
         <v>44</v>
@@ -3725,10 +3510,10 @@
       </c>
       <c r="J17" s="108"/>
     </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
+    <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>47</v>
@@ -3743,11 +3528,11 @@
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J18" s="108"/>
     </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1">
+    <row r="19" spans="2:10" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="41"/>
       <c r="C19" s="121"/>
       <c r="D19" s="121"/>
@@ -3758,10 +3543,10 @@
       <c r="I19" s="121"/>
       <c r="J19" s="108"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -3771,7 +3556,7 @@
       <c r="I20" s="121"/>
       <c r="J20" s="108"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="185" t="s">
         <v>42</v>
@@ -3793,7 +3578,7 @@
       </c>
       <c r="J21" s="108"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="185" t="s">
         <v>43</v>
@@ -3815,7 +3600,7 @@
       </c>
       <c r="J22" s="108"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="185" t="s">
         <v>46</v>
@@ -3837,7 +3622,7 @@
       </c>
       <c r="J23" s="108"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="185" t="s">
         <v>45</v>
@@ -3859,7 +3644,7 @@
       </c>
       <c r="J24" s="108"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
       <c r="C25" s="185" t="s">
         <v>39</v>
@@ -3881,7 +3666,7 @@
       </c>
       <c r="J25" s="108"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="185" t="s">
         <v>44</v>
@@ -3903,10 +3688,10 @@
       </c>
       <c r="J26" s="108"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>47</v>
@@ -3920,11 +3705,11 @@
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J27" s="108"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
       <c r="C28" s="121"/>
       <c r="D28" s="121"/>
@@ -3935,10 +3720,10 @@
       <c r="I28" s="121"/>
       <c r="J28" s="108"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
@@ -3948,7 +3733,7 @@
       <c r="I29" s="121"/>
       <c r="J29" s="108"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41"/>
       <c r="C30" s="185" t="s">
         <v>42</v>
@@ -3970,7 +3755,7 @@
       </c>
       <c r="J30" s="108"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41"/>
       <c r="C31" s="185" t="s">
         <v>43</v>
@@ -3992,7 +3777,7 @@
       </c>
       <c r="J31" s="108"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="41"/>
       <c r="C32" s="185" t="s">
         <v>46</v>
@@ -4014,7 +3799,7 @@
       </c>
       <c r="J32" s="108"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="41"/>
       <c r="C33" s="185" t="s">
         <v>45</v>
@@ -4036,7 +3821,7 @@
       </c>
       <c r="J33" s="108"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="41"/>
       <c r="C34" s="185" t="s">
         <v>39</v>
@@ -4058,7 +3843,7 @@
       </c>
       <c r="J34" s="108"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="41"/>
       <c r="C35" s="185" t="s">
         <v>44</v>
@@ -4080,10 +3865,10 @@
       </c>
       <c r="J35" s="108"/>
     </row>
-    <row r="36" spans="2:10" ht="16" thickBot="1">
+    <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
       <c r="C36" s="185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>47</v>
@@ -4097,11 +3882,11 @@
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J36" s="108"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="41"/>
       <c r="C37" s="121"/>
       <c r="D37" s="121"/>
@@ -4112,10 +3897,10 @@
       <c r="I37" s="121"/>
       <c r="J37" s="108"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D38" s="121"/>
       <c r="E38" s="121"/>
@@ -4125,7 +3910,7 @@
       <c r="I38" s="121"/>
       <c r="J38" s="108"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
       <c r="C39" s="185" t="s">
         <v>42</v>
@@ -4147,7 +3932,7 @@
       </c>
       <c r="J39" s="108"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
       <c r="C40" s="185" t="s">
         <v>43</v>
@@ -4169,7 +3954,7 @@
       </c>
       <c r="J40" s="108"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
       <c r="C41" s="185" t="s">
         <v>46</v>
@@ -4191,7 +3976,7 @@
       </c>
       <c r="J41" s="108"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="41"/>
       <c r="C42" s="185" t="s">
         <v>45</v>
@@ -4213,7 +3998,7 @@
       </c>
       <c r="J42" s="108"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="41"/>
       <c r="C43" s="185" t="s">
         <v>39</v>
@@ -4235,7 +4020,7 @@
       </c>
       <c r="J43" s="108"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="41"/>
       <c r="C44" s="185" t="s">
         <v>44</v>
@@ -4257,10 +4042,10 @@
       </c>
       <c r="J44" s="108"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="41"/>
       <c r="C45" s="185" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>47</v>
@@ -4274,11 +4059,11 @@
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="184" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J45" s="108"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46" s="41"/>
       <c r="C46" s="121"/>
       <c r="D46" s="121"/>
@@ -4289,7 +4074,7 @@
       <c r="I46" s="121"/>
       <c r="J46" s="108"/>
     </row>
-    <row r="47" spans="2:10" ht="16" thickBot="1">
+    <row r="47" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="42"/>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -4307,11 +4092,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4326,28 +4106,27 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="67" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
     <col min="10" max="10" width="3" style="68" customWidth="1"/>
-    <col min="11" max="11" width="8.5" style="68" customWidth="1"/>
-    <col min="12" max="12" width="2.75" style="68" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="68" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" style="68" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="68" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="68" customWidth="1"/>
     <col min="15" max="15" width="60" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="67"/>
+    <col min="16" max="16384" width="10.7109375" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" s="69"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
@@ -4363,7 +4142,7 @@
       <c r="N2" s="71"/>
       <c r="O2" s="72"/>
     </row>
-    <row r="3" spans="2:15" s="26" customFormat="1">
+    <row r="3" spans="2:15" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="112" t="s">
         <v>30</v>
@@ -4386,14 +4165,14 @@
       </c>
       <c r="L3" s="65"/>
       <c r="M3" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N3" s="65"/>
       <c r="O3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="73"/>
       <c r="C4" s="74"/>
       <c r="D4" s="74"/>
@@ -4409,7 +4188,7 @@
       <c r="N4" s="111"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="2:15" ht="16" thickBot="1">
+    <row r="5" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="73"/>
       <c r="C5" s="20" t="s">
         <v>54</v>
@@ -4427,7 +4206,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="16" thickBot="1">
+    <row r="6" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="73"/>
       <c r="C6" s="124" t="s">
         <v>37</v>
@@ -4452,10 +4231,10 @@
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
       <c r="O6" s="173" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="125" t="s">
         <v>38</v>
@@ -4485,7 +4264,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="131"/>
     </row>
-    <row r="8" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="125" t="s">
         <v>69</v>
@@ -4514,13 +4293,13 @@
       <c r="M8" s="16"/>
       <c r="N8" s="16"/>
       <c r="O8" s="173" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" s="144" customFormat="1" ht="16" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" s="144" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="140"/>
       <c r="C9" s="141" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D9" s="141"/>
       <c r="E9" s="141"/>
@@ -4542,10 +4321,10 @@
       <c r="M9" s="16"/>
       <c r="N9" s="16"/>
       <c r="O9" s="173" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="126" t="s">
         <v>39</v>
@@ -4574,10 +4353,10 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="182" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" s="6" customFormat="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="126"/>
       <c r="D11" s="126"/>
@@ -4593,7 +4372,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="73"/>
       <c r="C12" s="20" t="s">
         <v>36</v>
@@ -4611,7 +4390,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="131"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" s="73"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
@@ -4626,10 +4405,10 @@
       <c r="N13" s="16"/>
       <c r="O13" s="131"/>
     </row>
-    <row r="14" spans="2:15" ht="16" thickBot="1">
+    <row r="14" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="73"/>
       <c r="C14" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="78"/>
       <c r="E14" s="78"/>
@@ -4644,7 +4423,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="131"/>
     </row>
-    <row r="15" spans="2:15" ht="16" thickBot="1">
+    <row r="15" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="73"/>
       <c r="C15" s="127" t="s">
         <v>42</v>
@@ -4672,7 +4451,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="16" thickBot="1">
+    <row r="16" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="73"/>
       <c r="C16" s="127" t="s">
         <v>43</v>
@@ -4700,7 +4479,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="2:57" ht="16" thickBot="1">
+    <row r="17" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="73"/>
       <c r="C17" s="127" t="s">
         <v>46</v>
@@ -4728,7 +4507,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="2:57" ht="16" thickBot="1">
+    <row r="18" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="73"/>
       <c r="C18" s="127" t="s">
         <v>45</v>
@@ -4756,7 +4535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:57" ht="16" thickBot="1">
+    <row r="19" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="73"/>
       <c r="C19" s="127" t="s">
         <v>39</v>
@@ -4784,7 +4563,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:57" ht="16" thickBot="1">
+    <row r="20" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="73"/>
       <c r="C20" s="127" t="s">
         <v>44</v>
@@ -4812,7 +4591,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:57">
+    <row r="21" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B21" s="73"/>
       <c r="C21" s="127"/>
       <c r="D21" s="34"/>
@@ -4828,10 +4607,10 @@
       <c r="N21" s="77"/>
       <c r="O21" s="131"/>
     </row>
-    <row r="22" spans="2:57" ht="16" thickBot="1">
+    <row r="22" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="73"/>
       <c r="C22" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="78"/>
@@ -4846,7 +4625,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="131"/>
     </row>
-    <row r="23" spans="2:57" ht="16" thickBot="1">
+    <row r="23" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="73"/>
       <c r="C23" s="127" t="s">
         <v>42</v>
@@ -4874,7 +4653,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="2:57" ht="16" thickBot="1">
+    <row r="24" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="73"/>
       <c r="C24" s="127" t="s">
         <v>43</v>
@@ -4902,7 +4681,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="2:57" ht="16" thickBot="1">
+    <row r="25" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="73"/>
       <c r="C25" s="127" t="s">
         <v>46</v>
@@ -4930,7 +4709,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:57" ht="16" thickBot="1">
+    <row r="26" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="73"/>
       <c r="C26" s="127" t="s">
         <v>45</v>
@@ -4958,7 +4737,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="2:57" ht="16" thickBot="1">
+    <row r="27" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="73"/>
       <c r="C27" s="127" t="s">
         <v>39</v>
@@ -4986,7 +4765,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="2:57" ht="16" thickBot="1">
+    <row r="28" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="73"/>
       <c r="C28" s="127" t="s">
         <v>44</v>
@@ -5015,7 +4794,7 @@
       </c>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="2:57">
+    <row r="29" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B29" s="73"/>
       <c r="C29" s="127"/>
       <c r="D29" s="34"/>
@@ -5071,10 +4850,10 @@
       <c r="BD29" s="6"/>
       <c r="BE29" s="6"/>
     </row>
-    <row r="30" spans="2:57" ht="16" thickBot="1">
+    <row r="30" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="73"/>
       <c r="C30" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" s="78"/>
       <c r="E30" s="78"/>
@@ -5129,7 +4908,7 @@
       <c r="BD30" s="6"/>
       <c r="BE30" s="6"/>
     </row>
-    <row r="31" spans="2:57" ht="16" thickBot="1">
+    <row r="31" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="73"/>
       <c r="C31" s="127" t="s">
         <v>42</v>
@@ -5197,7 +4976,7 @@
       <c r="BD31" s="144"/>
       <c r="BE31" s="144"/>
     </row>
-    <row r="32" spans="2:57" ht="16" thickBot="1">
+    <row r="32" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="73"/>
       <c r="C32" s="127" t="s">
         <v>43</v>
@@ -5265,7 +5044,7 @@
       <c r="BD32" s="6"/>
       <c r="BE32" s="6"/>
     </row>
-    <row r="33" spans="2:57" ht="16" thickBot="1">
+    <row r="33" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="73"/>
       <c r="C33" s="127" t="s">
         <v>46</v>
@@ -5333,7 +5112,7 @@
       <c r="BD33" s="6"/>
       <c r="BE33" s="6"/>
     </row>
-    <row r="34" spans="2:57" ht="16" thickBot="1">
+    <row r="34" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="73"/>
       <c r="C34" s="127" t="s">
         <v>45</v>
@@ -5361,7 +5140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="2:57" ht="16" thickBot="1">
+    <row r="35" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="73"/>
       <c r="C35" s="127" t="s">
         <v>39</v>
@@ -5389,7 +5168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="2:57" ht="16" thickBot="1">
+    <row r="36" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="73"/>
       <c r="C36" s="127" t="s">
         <v>44</v>
@@ -5417,7 +5196,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:57">
+    <row r="37" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B37" s="73"/>
       <c r="C37" s="127"/>
       <c r="D37" s="34"/>
@@ -5433,10 +5212,10 @@
       <c r="N37" s="77"/>
       <c r="O37" s="131"/>
     </row>
-    <row r="38" spans="2:57" ht="16" thickBot="1">
+    <row r="38" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="73"/>
       <c r="C38" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" s="78"/>
       <c r="E38" s="78"/>
@@ -5451,7 +5230,7 @@
       <c r="N38" s="16"/>
       <c r="O38" s="131"/>
     </row>
-    <row r="39" spans="2:57" ht="16" thickBot="1">
+    <row r="39" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="73"/>
       <c r="C39" s="127" t="s">
         <v>42</v>
@@ -5479,7 +5258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="2:57" ht="16" thickBot="1">
+    <row r="40" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="73"/>
       <c r="C40" s="127" t="s">
         <v>43</v>
@@ -5507,7 +5286,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="2:57" ht="16" thickBot="1">
+    <row r="41" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="73"/>
       <c r="C41" s="127" t="s">
         <v>46</v>
@@ -5535,7 +5314,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="2:57" ht="16" thickBot="1">
+    <row r="42" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="73"/>
       <c r="C42" s="127" t="s">
         <v>45</v>
@@ -5563,7 +5342,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="2:57" ht="16" thickBot="1">
+    <row r="43" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="73"/>
       <c r="C43" s="127" t="s">
         <v>39</v>
@@ -5591,7 +5370,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="2:57" ht="16" thickBot="1">
+    <row r="44" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="73"/>
       <c r="C44" s="127" t="s">
         <v>44</v>
@@ -5619,7 +5398,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="2:57">
+    <row r="45" spans="2:57" x14ac:dyDescent="0.2">
       <c r="B45" s="73"/>
       <c r="C45" s="127"/>
       <c r="D45" s="34"/>
@@ -5635,7 +5414,7 @@
       <c r="N45" s="77"/>
       <c r="O45" s="131"/>
     </row>
-    <row r="46" spans="2:57" ht="16" thickBot="1">
+    <row r="46" spans="2:57" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="84"/>
       <c r="C46" s="85"/>
       <c r="D46" s="85"/>
@@ -5651,32 +5430,27 @@
       <c r="N46" s="85"/>
       <c r="O46" s="86"/>
     </row>
-    <row r="47" spans="2:57">
+    <row r="47" spans="2:57" x14ac:dyDescent="0.2">
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="2:57">
+    <row r="48" spans="2:57" x14ac:dyDescent="0.2">
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="13:15">
+    <row r="49" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="13:15">
+    <row r="50" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="13:15">
+    <row r="51" spans="13:15" x14ac:dyDescent="0.2">
       <c r="M51" s="18"/>
     </row>
-    <row r="52" spans="13:15">
+    <row r="52" spans="13:15" x14ac:dyDescent="0.2">
       <c r="O52" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5691,23 +5465,23 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="49"/>
+    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -5720,7 +5494,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -5735,7 +5509,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -5748,7 +5522,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -5777,7 +5551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -5790,7 +5564,7 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="145" t="s">
         <v>69</v>
@@ -5817,7 +5591,7 @@
       </c>
       <c r="L7" s="63"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
       <c r="C8" s="146" t="s">
         <v>66</v>
@@ -5825,7 +5599,7 @@
       <c r="E8" s="135"/>
       <c r="F8" s="135"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="147" t="s">
         <v>39</v>
@@ -5833,13 +5607,13 @@
       <c r="E9" s="135"/>
       <c r="F9" s="135"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="54"/>
       <c r="C10" s="120"/>
       <c r="E10" s="135"/>
       <c r="F10" s="135"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="62" t="s">
         <v>61</v>
@@ -5864,7 +5638,7 @@
       </c>
       <c r="L11" s="63"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="62"/>
       <c r="D12" s="62"/>
@@ -5877,18 +5651,18 @@
       <c r="K12" s="64"/>
       <c r="L12" s="63"/>
     </row>
-    <row r="13" spans="2:12" ht="17">
+    <row r="13" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B13" s="54"/>
       <c r="C13" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="62"/>
       <c r="E13" s="134" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="134"/>
       <c r="G13" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
@@ -5898,13 +5672,13 @@
         <v>42419</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L13" s="136" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="E14" s="135"/>
       <c r="F14" s="135"/>
@@ -5912,11 +5686,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5929,21 +5698,21 @@
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="115" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="115" customWidth="1"/>
     <col min="2" max="2" width="5" style="115" customWidth="1"/>
     <col min="3" max="4" width="7" style="115"/>
-    <col min="5" max="5" width="11.375" style="115" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="115" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="115" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="115" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="115" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="115" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="7" style="115"/>
     <col min="12" max="12" width="10" style="115" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="7" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="26" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="118"/>
       <c r="C2" s="119" t="s">
         <v>25</v>
@@ -5971,7 +5740,7 @@
       <c r="T2" s="119"/>
       <c r="U2" s="119"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="116"/>
       <c r="C3" s="117"/>
       <c r="D3" s="117"/>
@@ -5993,7 +5762,7 @@
       <c r="T3" s="117"/>
       <c r="U3" s="117"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="18">
+    <row r="4" spans="2:25" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="116"/>
       <c r="C4" s="175" t="s">
         <v>56</v>
@@ -6021,7 +5790,7 @@
       <c r="X4" s="128"/>
       <c r="Y4" s="128"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="116"/>
       <c r="C5" s="128"/>
       <c r="D5" s="128"/>
@@ -6047,7 +5816,7 @@
       <c r="X5" s="128"/>
       <c r="Y5" s="128"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="116"/>
       <c r="C6" s="128"/>
       <c r="D6" s="128"/>
@@ -6073,7 +5842,7 @@
       <c r="X6" s="128"/>
       <c r="Y6" s="128"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="116"/>
       <c r="C7" s="128"/>
       <c r="D7" s="128"/>
@@ -6099,14 +5868,14 @@
       <c r="X7" s="128"/>
       <c r="Y7" s="128"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="116"/>
       <c r="C8" s="128"/>
       <c r="D8">
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="128"/>
       <c r="G8" s="128"/>
@@ -6129,7 +5898,7 @@
       <c r="X8" s="128"/>
       <c r="Y8" s="128"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="116"/>
       <c r="C9" s="128"/>
       <c r="D9" s="128"/>
@@ -6154,7 +5923,7 @@
       <c r="X9" s="128"/>
       <c r="Y9" s="128"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="116"/>
       <c r="C10" s="128"/>
       <c r="D10" s="128"/>
@@ -6178,7 +5947,7 @@
       <c r="X10" s="128"/>
       <c r="Y10" s="128"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="116"/>
       <c r="C11" s="128"/>
       <c r="D11" s="128"/>
@@ -6203,7 +5972,7 @@
       <c r="X11" s="128"/>
       <c r="Y11" s="128"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="116"/>
       <c r="C12" s="128"/>
       <c r="D12" s="128"/>
@@ -6229,7 +5998,7 @@
       <c r="X12" s="128"/>
       <c r="Y12" s="128"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="116"/>
       <c r="C13" s="128"/>
       <c r="D13" s="128"/>
@@ -6255,7 +6024,7 @@
       <c r="X13" s="128"/>
       <c r="Y13" s="128"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="116"/>
       <c r="C14" s="128"/>
       <c r="D14" s="128"/>
@@ -6281,7 +6050,7 @@
       <c r="X14" s="128"/>
       <c r="Y14" s="128"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="116"/>
       <c r="C15" s="128"/>
       <c r="D15" s="128"/>
@@ -6307,7 +6076,7 @@
       <c r="X15" s="128"/>
       <c r="Y15" s="128"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="116"/>
       <c r="C16" s="128"/>
       <c r="D16" s="128"/>
@@ -6333,7 +6102,7 @@
       <c r="X16" s="128"/>
       <c r="Y16" s="128"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="116"/>
       <c r="C17" s="128"/>
       <c r="D17" s="128"/>
@@ -6359,7 +6128,7 @@
       <c r="X17" s="128"/>
       <c r="Y17" s="128"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="116"/>
       <c r="C18" s="128"/>
       <c r="D18" s="128"/>
@@ -6385,7 +6154,7 @@
       <c r="X18" s="128"/>
       <c r="Y18" s="128"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="116"/>
       <c r="C19" s="128"/>
       <c r="D19" s="128"/>
@@ -6411,7 +6180,7 @@
       <c r="X19" s="128"/>
       <c r="Y19" s="128"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="116"/>
       <c r="C20" s="128"/>
       <c r="D20" s="128"/>
@@ -6437,7 +6206,7 @@
       <c r="X20" s="128"/>
       <c r="Y20" s="128"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="116"/>
       <c r="C21" s="128"/>
       <c r="D21" s="128"/>
@@ -6463,12 +6232,12 @@
       <c r="X21" s="128"/>
       <c r="Y21" s="128"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="116"/>
       <c r="C22" s="128"/>
       <c r="D22" s="128"/>
       <c r="E22" s="177" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F22" s="180"/>
       <c r="G22" s="180"/>
@@ -6491,7 +6260,7 @@
       <c r="X22" s="128"/>
       <c r="Y22" s="128"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="116"/>
       <c r="C23" s="128"/>
       <c r="D23" s="128"/>
@@ -6517,7 +6286,7 @@
       <c r="X23" s="128"/>
       <c r="Y23" s="128"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="116"/>
       <c r="C24" s="128"/>
       <c r="D24" s="128"/>
@@ -6526,7 +6295,7 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="G24" s="177" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H24" s="177" t="s">
         <v>57</v>
@@ -6549,7 +6318,7 @@
       <c r="X24" s="128"/>
       <c r="Y24" s="128"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="116"/>
       <c r="C25" s="128"/>
       <c r="D25" s="128"/>
@@ -6580,7 +6349,7 @@
       <c r="X25" s="128"/>
       <c r="Y25" s="128"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="116"/>
       <c r="C26" s="128"/>
       <c r="D26" s="128"/>
@@ -6589,7 +6358,7 @@
         <v>31.4</v>
       </c>
       <c r="G26" s="177" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H26" s="177" t="s">
         <v>57</v>
@@ -6612,7 +6381,7 @@
       <c r="X26" s="128"/>
       <c r="Y26" s="128"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="116"/>
       <c r="C27" s="128"/>
       <c r="D27" s="128"/>
@@ -6645,7 +6414,7 @@
       <c r="X27" s="128"/>
       <c r="Y27" s="128"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="116"/>
       <c r="C28" s="128"/>
       <c r="D28" s="128"/>
@@ -6671,67 +6440,67 @@
       <c r="X28" s="128"/>
       <c r="Y28" s="128"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="116"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="116"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="116"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="116"/>
     </row>
-    <row r="33" spans="2:7" customFormat="1" ht="16">
+    <row r="33" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="116"/>
       <c r="D33">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" customFormat="1" ht="16">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="116"/>
     </row>
-    <row r="35" spans="2:7" customFormat="1" ht="16">
+    <row r="35" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="116"/>
     </row>
-    <row r="36" spans="2:7" customFormat="1" ht="16">
+    <row r="36" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="116"/>
     </row>
-    <row r="37" spans="2:7" customFormat="1" ht="16">
+    <row r="37" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="116"/>
     </row>
-    <row r="38" spans="2:7" customFormat="1" ht="16">
+    <row r="38" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="116"/>
     </row>
-    <row r="39" spans="2:7" customFormat="1" ht="16">
+    <row r="39" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="116"/>
     </row>
-    <row r="40" spans="2:7" customFormat="1" ht="16">
+    <row r="40" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="116"/>
     </row>
-    <row r="41" spans="2:7" customFormat="1" ht="16">
+    <row r="41" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="116"/>
     </row>
-    <row r="42" spans="2:7" customFormat="1" ht="16">
+    <row r="42" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="116"/>
     </row>
-    <row r="43" spans="2:7" customFormat="1" ht="16">
+    <row r="43" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="116"/>
     </row>
-    <row r="44" spans="2:7" customFormat="1" ht="16">
+    <row r="44" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="116"/>
       <c r="F44">
         <v>56.4</v>
       </c>
       <c r="G44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" customFormat="1" ht="16">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="116"/>
       <c r="F45">
         <f>F44/1000</f>
@@ -6741,22 +6510,22 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:7" customFormat="1" ht="16">
+    <row r="46" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="116"/>
     </row>
-    <row r="47" spans="2:7" customFormat="1" ht="16">
+    <row r="47" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="116"/>
     </row>
-    <row r="48" spans="2:7" customFormat="1" ht="16">
+    <row r="48" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="116"/>
     </row>
-    <row r="49" spans="2:35" customFormat="1" ht="16">
+    <row r="49" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="116"/>
     </row>
-    <row r="50" spans="2:35" customFormat="1" ht="17" thickBot="1">
+    <row r="50" spans="2:35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="116"/>
     </row>
-    <row r="51" spans="2:35" customFormat="1" ht="16">
+    <row r="51" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="118"/>
       <c r="C51" s="119" t="s">
         <v>25</v>
@@ -6798,7 +6567,7 @@
       <c r="AH51" s="26"/>
       <c r="AI51" s="26"/>
     </row>
-    <row r="52" spans="2:35" customFormat="1" ht="16">
+    <row r="52" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="116"/>
       <c r="C52" s="130"/>
       <c r="D52" s="128"/>
@@ -6824,7 +6593,7 @@
       <c r="X52" s="128"/>
       <c r="Y52" s="128"/>
     </row>
-    <row r="53" spans="2:35" customFormat="1" ht="17">
+    <row r="53" spans="2:35" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B53" s="116"/>
       <c r="C53" s="136" t="s">
         <v>60</v>
@@ -6852,7 +6621,7 @@
       <c r="X53" s="128"/>
       <c r="Y53" s="128"/>
     </row>
-    <row r="54" spans="2:35" customFormat="1" ht="16">
+    <row r="54" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="116"/>
       <c r="C54" s="128"/>
       <c r="D54" s="128"/>
@@ -6878,11 +6647,11 @@
       <c r="X54" s="128"/>
       <c r="Y54" s="128"/>
     </row>
-    <row r="55" spans="2:35" customFormat="1" ht="16">
+    <row r="55" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="116"/>
       <c r="C55" s="128"/>
       <c r="D55" s="177" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" s="177"/>
       <c r="F55" s="177"/>
@@ -6906,7 +6675,7 @@
       <c r="X55" s="128"/>
       <c r="Y55" s="128"/>
     </row>
-    <row r="56" spans="2:35" customFormat="1" ht="16">
+    <row r="56" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="116"/>
       <c r="C56" s="128"/>
       <c r="D56" s="177"/>
@@ -6942,7 +6711,7 @@
       <c r="AH56" s="115"/>
       <c r="AI56" s="115"/>
     </row>
-    <row r="57" spans="2:35" customFormat="1" ht="16">
+    <row r="57" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="116"/>
       <c r="C57" s="128"/>
       <c r="D57" s="177"/>
@@ -6978,7 +6747,7 @@
       <c r="AH57" s="115"/>
       <c r="AI57" s="115"/>
     </row>
-    <row r="58" spans="2:35" customFormat="1" ht="16">
+    <row r="58" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="116"/>
       <c r="C58" s="128"/>
       <c r="D58" s="177"/>
@@ -7014,12 +6783,12 @@
       <c r="AH58" s="115"/>
       <c r="AI58" s="115"/>
     </row>
-    <row r="59" spans="2:35" customFormat="1" ht="16">
+    <row r="59" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="116"/>
       <c r="C59" s="128"/>
       <c r="D59" s="177"/>
       <c r="E59" s="178" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F59" s="177"/>
       <c r="G59" s="177"/>
@@ -7052,7 +6821,7 @@
       <c r="AH59" s="115"/>
       <c r="AI59" s="115"/>
     </row>
-    <row r="60" spans="2:35" customFormat="1" ht="16">
+    <row r="60" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="116"/>
       <c r="C60" s="128"/>
       <c r="D60" s="177"/>
@@ -7065,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J60" s="177"/>
       <c r="K60" s="177" t="s">
@@ -7096,7 +6865,7 @@
       <c r="AH60" s="115"/>
       <c r="AI60" s="115"/>
     </row>
-    <row r="61" spans="2:35" customFormat="1" ht="16">
+    <row r="61" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B61" s="116"/>
       <c r="C61" s="128"/>
       <c r="D61" s="177"/>
@@ -7109,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J61" s="177"/>
       <c r="K61" s="177"/>
@@ -7138,7 +6907,7 @@
       <c r="AH61" s="115"/>
       <c r="AI61" s="115"/>
     </row>
-    <row r="62" spans="2:35" customFormat="1" ht="16">
+    <row r="62" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="116"/>
       <c r="C62" s="128"/>
       <c r="D62" s="177"/>
@@ -7151,7 +6920,7 @@
         <v>1.33618E-3</v>
       </c>
       <c r="I62" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" s="177"/>
       <c r="K62" s="177"/>
@@ -7180,7 +6949,7 @@
       <c r="AH62" s="115"/>
       <c r="AI62" s="115"/>
     </row>
-    <row r="63" spans="2:35" customFormat="1" ht="16">
+    <row r="63" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="116"/>
       <c r="C63" s="128"/>
       <c r="D63" s="177"/>
@@ -7193,7 +6962,7 @@
         <v>4.3898599999999998E-3</v>
       </c>
       <c r="I63" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" s="177"/>
       <c r="K63" s="177"/>
@@ -7222,7 +6991,7 @@
       <c r="AH63" s="115"/>
       <c r="AI63" s="115"/>
     </row>
-    <row r="64" spans="2:35" customFormat="1" ht="16">
+    <row r="64" spans="2:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="116"/>
       <c r="C64" s="128"/>
       <c r="D64" s="177"/>
@@ -7235,7 +7004,7 @@
         <v>5.6754100000000002E-2</v>
       </c>
       <c r="I64" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J64" s="177"/>
       <c r="K64" s="177"/>
@@ -7264,7 +7033,7 @@
       <c r="AH64" s="115"/>
       <c r="AI64" s="115"/>
     </row>
-    <row r="65" spans="1:35" customFormat="1" ht="16">
+    <row r="65" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="116"/>
       <c r="C65" s="128"/>
       <c r="D65" s="177"/>
@@ -7277,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" s="177"/>
       <c r="K65" s="177" t="s">
@@ -7308,7 +7077,7 @@
       <c r="AH65" s="115"/>
       <c r="AI65" s="115"/>
     </row>
-    <row r="66" spans="1:35" customFormat="1" ht="16">
+    <row r="66" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="116"/>
       <c r="C66" s="128"/>
       <c r="D66" s="177"/>
@@ -7344,7 +7113,7 @@
       <c r="AH66" s="115"/>
       <c r="AI66" s="115"/>
     </row>
-    <row r="67" spans="1:35" customFormat="1" ht="16">
+    <row r="67" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="116"/>
       <c r="C67" s="128"/>
       <c r="D67" s="177"/>
@@ -7380,12 +7149,12 @@
       <c r="AH67" s="115"/>
       <c r="AI67" s="115"/>
     </row>
-    <row r="68" spans="1:35" customFormat="1" ht="16">
+    <row r="68" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="116"/>
       <c r="C68" s="128"/>
       <c r="D68" s="177"/>
       <c r="E68" s="178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F68" s="177"/>
       <c r="G68" s="177"/>
@@ -7418,7 +7187,7 @@
       <c r="AH68" s="115"/>
       <c r="AI68" s="115"/>
     </row>
-    <row r="69" spans="1:35" customFormat="1" ht="16">
+    <row r="69" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="116"/>
       <c r="C69" s="128"/>
       <c r="D69" s="177"/>
@@ -7431,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J69" s="177"/>
       <c r="K69" s="177" t="s">
@@ -7462,7 +7231,7 @@
       <c r="AH69" s="115"/>
       <c r="AI69" s="115"/>
     </row>
-    <row r="70" spans="1:35" customFormat="1" ht="16">
+    <row r="70" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="116"/>
       <c r="C70" s="128"/>
       <c r="D70" s="177"/>
@@ -7475,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J70" s="177"/>
       <c r="K70" s="177"/>
@@ -7504,7 +7273,7 @@
       <c r="AH70" s="115"/>
       <c r="AI70" s="115"/>
     </row>
-    <row r="71" spans="1:35" customFormat="1" ht="16">
+    <row r="71" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="116"/>
       <c r="C71" s="128"/>
       <c r="D71" s="177"/>
@@ -7517,7 +7286,7 @@
         <v>9.0760000000000005E-4</v>
       </c>
       <c r="I71" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J71" s="177"/>
       <c r="K71" s="177"/>
@@ -7546,7 +7315,7 @@
       <c r="AH71" s="115"/>
       <c r="AI71" s="115"/>
     </row>
-    <row r="72" spans="1:35" customFormat="1" ht="16">
+    <row r="72" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="116"/>
       <c r="C72" s="128"/>
       <c r="D72" s="177"/>
@@ -7559,7 +7328,7 @@
         <v>1.1197E-4</v>
       </c>
       <c r="I72" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J72" s="177"/>
       <c r="K72" s="177"/>
@@ -7588,7 +7357,7 @@
       <c r="AH72" s="115"/>
       <c r="AI72" s="115"/>
     </row>
-    <row r="73" spans="1:35" customFormat="1" ht="16">
+    <row r="73" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="116"/>
       <c r="C73" s="128"/>
       <c r="D73" s="177"/>
@@ -7601,7 +7370,7 @@
         <v>5.5211700000000002E-2</v>
       </c>
       <c r="I73" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J73" s="177"/>
       <c r="K73" s="177"/>
@@ -7630,7 +7399,7 @@
       <c r="AH73" s="115"/>
       <c r="AI73" s="115"/>
     </row>
-    <row r="74" spans="1:35" customFormat="1" ht="16">
+    <row r="74" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="116"/>
       <c r="C74" s="128"/>
       <c r="D74" s="177"/>
@@ -7643,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J74" s="177"/>
       <c r="K74" s="177" t="s">
@@ -7674,7 +7443,7 @@
       <c r="AH74" s="115"/>
       <c r="AI74" s="115"/>
     </row>
-    <row r="75" spans="1:35" customFormat="1" ht="16">
+    <row r="75" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="116"/>
       <c r="C75" s="128"/>
       <c r="D75" s="177"/>
@@ -7710,7 +7479,7 @@
       <c r="AH75" s="115"/>
       <c r="AI75" s="115"/>
     </row>
-    <row r="76" spans="1:35" customFormat="1" ht="16">
+    <row r="76" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="116"/>
       <c r="C76" s="128"/>
       <c r="D76" s="177"/>
@@ -7746,12 +7515,12 @@
       <c r="AH76" s="115"/>
       <c r="AI76" s="115"/>
     </row>
-    <row r="77" spans="1:35" customFormat="1" ht="16">
+    <row r="77" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="116"/>
       <c r="C77" s="128"/>
       <c r="D77" s="177"/>
       <c r="E77" s="178" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F77" s="177"/>
       <c r="G77" s="177"/>
@@ -7784,7 +7553,7 @@
       <c r="AH77" s="115"/>
       <c r="AI77" s="115"/>
     </row>
-    <row r="78" spans="1:35" customFormat="1" ht="16">
+    <row r="78" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="116"/>
       <c r="C78" s="128"/>
       <c r="D78" s="177"/>
@@ -7797,7 +7566,7 @@
         <v>0</v>
       </c>
       <c r="I78" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J78" s="177"/>
       <c r="K78" s="177" t="s">
@@ -7828,7 +7597,7 @@
       <c r="AH78" s="115"/>
       <c r="AI78" s="115"/>
     </row>
-    <row r="79" spans="1:35" s="26" customFormat="1" ht="16">
+    <row r="79" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="116"/>
       <c r="C79" s="128"/>
@@ -7842,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J79" s="177"/>
       <c r="K79" s="177"/>
@@ -7871,7 +7640,7 @@
       <c r="AH79" s="115"/>
       <c r="AI79" s="115"/>
     </row>
-    <row r="80" spans="1:35" customFormat="1" ht="16">
+    <row r="80" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="116"/>
       <c r="C80" s="128"/>
       <c r="D80" s="177"/>
@@ -7884,7 +7653,7 @@
         <v>1.02917E-3</v>
       </c>
       <c r="I80" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J80" s="177"/>
       <c r="K80" s="177"/>
@@ -7913,7 +7682,7 @@
       <c r="AH80" s="115"/>
       <c r="AI80" s="115"/>
     </row>
-    <row r="81" spans="1:35" customFormat="1" ht="16">
+    <row r="81" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="116"/>
       <c r="C81" s="128"/>
       <c r="D81" s="177"/>
@@ -7926,7 +7695,7 @@
         <v>1.1242699999999999E-3</v>
       </c>
       <c r="I81" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J81" s="177"/>
       <c r="K81" s="177"/>
@@ -7955,7 +7724,7 @@
       <c r="AH81" s="115"/>
       <c r="AI81" s="115"/>
     </row>
-    <row r="82" spans="1:35" customFormat="1" ht="16">
+    <row r="82" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="116"/>
       <c r="C82" s="128"/>
       <c r="D82" s="177"/>
@@ -7968,7 +7737,7 @@
         <v>5.6648700000000003E-2</v>
       </c>
       <c r="I82" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J82" s="177"/>
       <c r="K82" s="177"/>
@@ -7997,7 +7766,7 @@
       <c r="AH82" s="115"/>
       <c r="AI82" s="115"/>
     </row>
-    <row r="83" spans="1:35" customFormat="1" ht="16">
+    <row r="83" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="116"/>
       <c r="C83" s="128"/>
       <c r="D83" s="177"/>
@@ -8010,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J83" s="177"/>
       <c r="K83" s="177" t="s">
@@ -8041,7 +7810,7 @@
       <c r="AH83" s="115"/>
       <c r="AI83" s="115"/>
     </row>
-    <row r="84" spans="1:35" ht="16">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="116"/>
       <c r="C84" s="128"/>
@@ -8058,7 +7827,7 @@
       <c r="N84" s="128"/>
       <c r="O84" s="128"/>
     </row>
-    <row r="85" spans="1:35" ht="16">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="116"/>
       <c r="C85" s="128"/>
@@ -8075,13 +7844,13 @@
       <c r="N85" s="128"/>
       <c r="O85" s="128"/>
     </row>
-    <row r="86" spans="1:35" ht="16">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="116"/>
       <c r="C86" s="128"/>
       <c r="D86" s="177"/>
       <c r="E86" s="178" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F86" s="177"/>
       <c r="G86" s="177"/>
@@ -8094,7 +7863,7 @@
       <c r="N86" s="128"/>
       <c r="O86" s="128"/>
     </row>
-    <row r="87" spans="1:35" ht="16">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="116"/>
       <c r="C87" s="128"/>
@@ -8108,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="I87" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J87" s="177"/>
       <c r="K87" s="177" t="s">
@@ -8120,7 +7889,7 @@
       <c r="O87" s="128"/>
       <c r="P87" s="128"/>
     </row>
-    <row r="88" spans="1:35" ht="16">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" s="116"/>
       <c r="C88" s="128"/>
@@ -8134,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="I88" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J88" s="177"/>
       <c r="K88" s="177"/>
@@ -8144,7 +7913,7 @@
       <c r="O88" s="128"/>
       <c r="P88" s="128"/>
     </row>
-    <row r="89" spans="1:35" ht="16">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="116"/>
       <c r="C89" s="128"/>
@@ -8158,7 +7927,7 @@
         <v>2.8005899999999999E-3</v>
       </c>
       <c r="I89" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J89" s="177"/>
       <c r="K89" s="177"/>
@@ -8168,7 +7937,7 @@
       <c r="O89" s="128"/>
       <c r="P89" s="128"/>
     </row>
-    <row r="90" spans="1:35" ht="16">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" s="116"/>
       <c r="C90" s="128"/>
@@ -8182,7 +7951,7 @@
         <v>9.8861899999999996E-3</v>
       </c>
       <c r="I90" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J90" s="177"/>
       <c r="K90" s="177"/>
@@ -8192,7 +7961,7 @@
       <c r="O90" s="128"/>
       <c r="P90" s="128"/>
     </row>
-    <row r="91" spans="1:35" ht="16">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" s="116"/>
       <c r="C91" s="128"/>
@@ -8206,7 +7975,7 @@
         <v>5.5120299999999997E-2</v>
       </c>
       <c r="I91" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J91" s="177"/>
       <c r="K91" s="177"/>
@@ -8216,7 +7985,7 @@
       <c r="O91" s="128"/>
       <c r="P91" s="128"/>
     </row>
-    <row r="92" spans="1:35" ht="16">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" s="116"/>
       <c r="C92" s="128"/>
@@ -8230,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="I92" s="177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J92" s="177"/>
       <c r="K92" s="177" t="s">
@@ -8242,7 +8011,7 @@
       <c r="O92" s="128"/>
       <c r="P92" s="128"/>
     </row>
-    <row r="93" spans="1:35" ht="16">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" s="116"/>
       <c r="C93" s="128"/>
@@ -8261,7 +8030,7 @@
       <c r="P93" s="128"/>
       <c r="Q93" s="128"/>
     </row>
-    <row r="94" spans="1:35" ht="16">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="116"/>
       <c r="C94" s="128"/>
@@ -8280,7 +8049,7 @@
       <c r="P94" s="128"/>
       <c r="Q94" s="128"/>
     </row>
-    <row r="95" spans="1:35" ht="17" thickBot="1">
+    <row r="95" spans="1:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95"/>
       <c r="B95" s="116"/>
       <c r="C95" s="128"/>
@@ -8307,7 +8076,7 @@
       <c r="X95"/>
       <c r="Y95"/>
     </row>
-    <row r="96" spans="1:35" ht="16">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" s="118"/>
       <c r="C96" s="119" t="s">
@@ -8340,7 +8109,7 @@
       <c r="X96" s="26"/>
       <c r="Y96" s="26"/>
     </row>
-    <row r="97" spans="1:35" ht="16">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" s="116"/>
       <c r="C97" s="130"/>
@@ -8372,11 +8141,11 @@
       <c r="AC97" s="167"/>
       <c r="AD97" s="167"/>
     </row>
-    <row r="98" spans="1:35" ht="17">
+    <row r="98" spans="1:35" ht="21" x14ac:dyDescent="0.25">
       <c r="A98"/>
       <c r="B98" s="116"/>
       <c r="C98" s="136" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98" s="128"/>
       <c r="E98" s="128"/>
@@ -8406,7 +8175,7 @@
       <c r="AC98" s="167"/>
       <c r="AD98" s="167"/>
     </row>
-    <row r="99" spans="1:35" ht="16">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="116"/>
       <c r="C99" s="128"/>
@@ -8438,7 +8207,7 @@
       <c r="AC99" s="167"/>
       <c r="AD99" s="167"/>
     </row>
-    <row r="100" spans="1:35" ht="16">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" s="116"/>
       <c r="C100"/>
@@ -8470,7 +8239,7 @@
       <c r="AC100" s="167"/>
       <c r="AD100" s="167"/>
     </row>
-    <row r="101" spans="1:35" ht="16">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="116"/>
       <c r="C101"/>
@@ -8502,7 +8271,7 @@
       <c r="AC101" s="128"/>
       <c r="AD101" s="128"/>
     </row>
-    <row r="102" spans="1:35" ht="16">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102" s="116"/>
       <c r="C102" s="174"/>
@@ -8534,7 +8303,7 @@
       <c r="AC102" s="174"/>
       <c r="AD102" s="174"/>
     </row>
-    <row r="103" spans="1:35" ht="16">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A103"/>
       <c r="B103" s="116"/>
       <c r="C103" s="128"/>
@@ -8559,7 +8328,7 @@
       <c r="AC103" s="174"/>
       <c r="AD103" s="174"/>
     </row>
-    <row r="104" spans="1:35" ht="16">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104" s="116"/>
       <c r="C104" s="174"/>
@@ -8583,13 +8352,13 @@
       <c r="AC104" s="128"/>
       <c r="AD104" s="128"/>
     </row>
-    <row r="105" spans="1:35" ht="16">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A105"/>
       <c r="B105" s="116"/>
       <c r="C105" s="174"/>
       <c r="D105" s="174"/>
       <c r="F105" s="170" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L105" s="168"/>
       <c r="M105" s="167"/>
@@ -8609,7 +8378,7 @@
       <c r="AC105" s="128"/>
       <c r="AD105" s="174"/>
     </row>
-    <row r="106" spans="1:35" ht="16">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106" s="116"/>
       <c r="C106" s="128"/>
@@ -8632,7 +8401,7 @@
       <c r="AC106" s="174"/>
       <c r="AD106" s="174"/>
     </row>
-    <row r="107" spans="1:35" ht="16">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A107"/>
       <c r="B107" s="116"/>
       <c r="C107" s="128"/>
@@ -8641,7 +8410,7 @@
         <v>13.5</v>
       </c>
       <c r="H107" s="170" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L107" s="168"/>
       <c r="M107" s="167"/>
@@ -8661,7 +8430,7 @@
       <c r="AC107" s="167"/>
       <c r="AD107" s="167"/>
     </row>
-    <row r="108" spans="1:35" ht="16">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108" s="116"/>
       <c r="C108" s="174"/>
@@ -8671,7 +8440,7 @@
         <v>3.7499999999999999E-3</v>
       </c>
       <c r="H108" s="170" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L108" s="168"/>
       <c r="M108" s="167"/>
@@ -8691,7 +8460,7 @@
       <c r="AC108" s="167"/>
       <c r="AD108" s="167"/>
     </row>
-    <row r="109" spans="1:35" ht="16">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A109"/>
       <c r="B109" s="116"/>
       <c r="C109" s="174"/>
@@ -8714,7 +8483,7 @@
       <c r="AC109" s="128"/>
       <c r="AD109" s="128"/>
     </row>
-    <row r="110" spans="1:35" ht="16">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110" s="116"/>
       <c r="C110" s="174"/>
@@ -8737,7 +8506,7 @@
       <c r="AC110" s="174"/>
       <c r="AD110" s="174"/>
     </row>
-    <row r="111" spans="1:35" ht="16">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A111"/>
       <c r="B111" s="116"/>
       <c r="C111" s="128"/>
@@ -8765,7 +8534,7 @@
       <c r="AH111"/>
       <c r="AI111"/>
     </row>
-    <row r="112" spans="1:35" ht="16">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="116"/>
       <c r="C112" s="128"/>
@@ -8800,7 +8569,7 @@
       <c r="AH112"/>
       <c r="AI112"/>
     </row>
-    <row r="113" spans="1:35" ht="16">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A113"/>
       <c r="B113" s="116"/>
       <c r="C113" s="174"/>
@@ -8835,7 +8604,7 @@
       <c r="AH113" s="26"/>
       <c r="AI113" s="26"/>
     </row>
-    <row r="114" spans="1:35" ht="16">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114" s="116"/>
       <c r="C114" s="128"/>
@@ -8870,7 +8639,7 @@
       <c r="AH114"/>
       <c r="AI114"/>
     </row>
-    <row r="115" spans="1:35" ht="16">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A115"/>
       <c r="B115" s="116"/>
       <c r="C115" s="174"/>
@@ -8905,7 +8674,7 @@
       <c r="AH115"/>
       <c r="AI115"/>
     </row>
-    <row r="116" spans="1:35" ht="16">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" s="116"/>
       <c r="C116" s="174"/>
@@ -8940,7 +8709,7 @@
       <c r="AH116"/>
       <c r="AI116"/>
     </row>
-    <row r="117" spans="1:35" ht="16">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" s="116"/>
       <c r="C117" s="128"/>
@@ -8975,7 +8744,7 @@
       <c r="AH117"/>
       <c r="AI117"/>
     </row>
-    <row r="118" spans="1:35" ht="16">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118" s="116"/>
       <c r="C118" s="128"/>
@@ -9010,7 +8779,7 @@
       <c r="AH118"/>
       <c r="AI118"/>
     </row>
-    <row r="119" spans="1:35" ht="16">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A119"/>
       <c r="B119" s="116"/>
       <c r="C119" s="174"/>
@@ -9045,7 +8814,7 @@
       <c r="AH119"/>
       <c r="AI119"/>
     </row>
-    <row r="120" spans="1:35" ht="16">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120" s="116"/>
       <c r="C120" s="174"/>
@@ -9077,7 +8846,7 @@
       <c r="AC120" s="167"/>
       <c r="AD120" s="167"/>
     </row>
-    <row r="121" spans="1:35" ht="16">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A121"/>
       <c r="B121" s="116"/>
       <c r="C121" s="174"/>
@@ -9109,7 +8878,7 @@
       <c r="AC121" s="167"/>
       <c r="AD121" s="167"/>
     </row>
-    <row r="122" spans="1:35" ht="16">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122" s="116"/>
       <c r="C122" s="128"/>
@@ -9141,7 +8910,7 @@
       <c r="AC122" s="167"/>
       <c r="AD122" s="167"/>
     </row>
-    <row r="123" spans="1:35" ht="16">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A123"/>
       <c r="B123" s="116"/>
       <c r="C123" s="128"/>
@@ -9173,7 +8942,7 @@
       <c r="AC123" s="167"/>
       <c r="AD123" s="167"/>
     </row>
-    <row r="124" spans="1:35" ht="16">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124" s="116"/>
       <c r="C124" s="174"/>
@@ -9205,7 +8974,7 @@
       <c r="AC124" s="167"/>
       <c r="AD124" s="167"/>
     </row>
-    <row r="125" spans="1:35" ht="16">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A125"/>
       <c r="B125" s="116"/>
       <c r="C125" s="174"/>
@@ -9237,7 +9006,7 @@
       <c r="AC125" s="167"/>
       <c r="AD125" s="167"/>
     </row>
-    <row r="126" spans="1:35" ht="16">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126" s="116"/>
       <c r="C126" s="128"/>
@@ -9269,7 +9038,7 @@
       <c r="AC126" s="167"/>
       <c r="AD126" s="167"/>
     </row>
-    <row r="127" spans="1:35" ht="16">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A127"/>
       <c r="B127" s="116"/>
       <c r="C127" s="174"/>
@@ -9301,7 +9070,7 @@
       <c r="AC127" s="128"/>
       <c r="AD127" s="128"/>
     </row>
-    <row r="128" spans="1:35" ht="16">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128" s="128"/>
       <c r="C128" s="174"/>
@@ -9333,7 +9102,7 @@
       <c r="AC128" s="174"/>
       <c r="AD128" s="174"/>
     </row>
-    <row r="129" spans="1:35" ht="16">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A129" s="128"/>
       <c r="B129" s="128"/>
       <c r="C129" s="128"/>
@@ -9365,7 +9134,7 @@
       <c r="AC129" s="174"/>
       <c r="AD129" s="174"/>
     </row>
-    <row r="130" spans="1:35" ht="16">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A130" s="128"/>
       <c r="B130" s="128"/>
       <c r="C130" s="128"/>
@@ -9397,7 +9166,7 @@
       <c r="AC130" s="128"/>
       <c r="AD130" s="128"/>
     </row>
-    <row r="131" spans="1:35" ht="16">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A131" s="174"/>
       <c r="B131" s="174"/>
       <c r="C131" s="174"/>
@@ -9429,7 +9198,7 @@
       <c r="AC131" s="128"/>
       <c r="AD131" s="174"/>
     </row>
-    <row r="132" spans="1:35" ht="16">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A132" s="174"/>
       <c r="B132" s="174"/>
       <c r="C132" s="174"/>
@@ -9461,7 +9230,7 @@
       <c r="AC132" s="174"/>
       <c r="AD132" s="174"/>
     </row>
-    <row r="139" spans="1:35" customFormat="1" ht="16">
+    <row r="139" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="115"/>
       <c r="B139" s="115"/>
       <c r="C139" s="115"/>
@@ -9498,7 +9267,7 @@
       <c r="AH139" s="115"/>
       <c r="AI139" s="115"/>
     </row>
-    <row r="140" spans="1:35" customFormat="1" ht="16">
+    <row r="140" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="115"/>
       <c r="B140" s="115"/>
       <c r="C140" s="115"/>
@@ -9535,7 +9304,7 @@
       <c r="AH140" s="115"/>
       <c r="AI140" s="115"/>
     </row>
-    <row r="141" spans="1:35" s="26" customFormat="1">
+    <row r="141" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="115"/>
       <c r="B141" s="115"/>
       <c r="C141" s="115"/>
@@ -9572,7 +9341,7 @@
       <c r="AH141" s="115"/>
       <c r="AI141" s="115"/>
     </row>
-    <row r="142" spans="1:35" customFormat="1" ht="16">
+    <row r="142" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="115"/>
       <c r="B142" s="115"/>
       <c r="C142" s="115"/>
@@ -9609,7 +9378,7 @@
       <c r="AH142" s="115"/>
       <c r="AI142" s="115"/>
     </row>
-    <row r="143" spans="1:35" customFormat="1" ht="16">
+    <row r="143" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="115"/>
       <c r="B143" s="115"/>
       <c r="C143" s="115"/>
@@ -9646,7 +9415,7 @@
       <c r="AH143" s="115"/>
       <c r="AI143" s="115"/>
     </row>
-    <row r="144" spans="1:35" customFormat="1" ht="16">
+    <row r="144" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="115"/>
       <c r="B144" s="115"/>
       <c r="C144" s="115"/>
@@ -9683,7 +9452,7 @@
       <c r="AH144" s="115"/>
       <c r="AI144" s="115"/>
     </row>
-    <row r="145" spans="1:35" customFormat="1" ht="16">
+    <row r="145" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="115"/>
       <c r="B145" s="115"/>
       <c r="C145" s="115"/>
@@ -9720,7 +9489,7 @@
       <c r="AH145" s="115"/>
       <c r="AI145" s="115"/>
     </row>
-    <row r="146" spans="1:35" customFormat="1" ht="16">
+    <row r="146" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A146" s="115"/>
       <c r="B146" s="115"/>
       <c r="C146" s="115"/>
@@ -9757,7 +9526,7 @@
       <c r="AH146" s="115"/>
       <c r="AI146" s="115"/>
     </row>
-    <row r="147" spans="1:35" customFormat="1" ht="16">
+    <row r="147" spans="1:35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="115"/>
       <c r="B147" s="115"/>
       <c r="C147" s="115"/>
@@ -9798,11 +9567,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9815,26 +9579,26 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.25" customWidth="1"/>
+    <col min="1" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.75" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="7" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="7" width="17.7109375" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="155" customFormat="1" ht="15">
+    <row r="1" spans="2:9" s="155" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="156"/>
       <c r="E1" s="156"/>
       <c r="F1" s="156"/>
       <c r="G1" s="156"/>
     </row>
-    <row r="2" spans="2:9" s="155" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="2:9" s="155" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="186" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
@@ -9842,7 +9606,7 @@
       <c r="F2" s="156"/>
       <c r="G2" s="156"/>
     </row>
-    <row r="3" spans="2:9" s="155" customFormat="1" ht="15">
+    <row r="3" spans="2:9" s="155" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="189"/>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
@@ -9850,18 +9614,18 @@
       <c r="F3" s="156"/>
       <c r="G3" s="156"/>
     </row>
-    <row r="4" spans="2:9" s="155" customFormat="1" ht="15">
-      <c r="B4" s="198"/>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="200"/>
+    <row r="4" spans="2:9" s="155" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="197"/>
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
     </row>
-    <row r="5" spans="2:9" s="155" customFormat="1" thickBot="1">
+    <row r="5" spans="2:9" s="155" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="156"/>
     </row>
-    <row r="6" spans="2:9" s="155" customFormat="1" ht="15">
+    <row r="6" spans="2:9" s="155" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="157"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -9871,10 +9635,10 @@
       <c r="H6" s="22"/>
       <c r="I6" s="158"/>
     </row>
-    <row r="7" spans="2:9" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:9" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="103"/>
       <c r="C7" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="104" t="s">
         <v>5</v>
@@ -9886,36 +9650,36 @@
         <v>4</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="I7" s="107"/>
     </row>
-    <row r="8" spans="2:9" ht="19" thickBot="1">
+    <row r="8" spans="2:9" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="2:9" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:9" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="159" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>77</v>
       </c>
       <c r="E9" s="160">
         <v>1.0965</v>
       </c>
       <c r="F9" s="159" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="161">
         <v>42412</v>
       </c>
       <c r="H9" s="162" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="46"/>
     </row>
@@ -9925,10 +9689,5 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/natural_gas.carrier.xlsx
+++ b/carriers_source_analyses/natural_gas.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="36140" yWindow="-1140" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="4320" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="dollar_data">Exchange_rates!$E$9:$H$9</definedName>
@@ -356,12 +355,6 @@
     <t>euro/MJ</t>
   </si>
   <si>
-    <t>CAL17 price</t>
-  </si>
-  <si>
-    <t>http://energeia.nl/nieuws/832632-1602/stemming-productiebeperking-olie-geeft-beetje-lucht</t>
-  </si>
-  <si>
     <t>http://refman.et-model.com/publications/2036</t>
   </si>
   <si>
@@ -401,6 +394,12 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>CAL18price</t>
+  </si>
+  <si>
+    <t>https://energeia.nl/energeia-artikel/40062204/stemming-gasbedrijven-gaan-methaanemissies-terugdringen</t>
   </si>
 </sst>
 </file>
@@ -417,12 +416,19 @@
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -562,6 +568,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -569,6 +576,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,6 +584,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -583,6 +592,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,17 +600,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -614,11 +627,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -636,6 +651,7 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -664,14 +680,17 @@
     <font>
       <sz val="16"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1012,753 +1031,754 @@
   </borders>
   <cellStyleXfs count="418">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="418">
     <cellStyle name="Excel Built-in Normal" xfId="338"/>
@@ -2460,29 +2480,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-      <sheetName val="carrier_manager"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2814,11 +2811,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="23"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -2844,7 +2841,7 @@
         <v>68</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2853,7 +2850,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -3012,23 +3009,23 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -3039,13 +3036,13 @@
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="186" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
       <c r="E2" s="187"/>
       <c r="F2" s="187"/>
-      <c r="G2" s="198"/>
+      <c r="G2" s="188"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="189"/>
@@ -3053,15 +3050,15 @@
       <c r="D3" s="190"/>
       <c r="E3" s="190"/>
       <c r="F3" s="190"/>
-      <c r="G3" s="199"/>
+      <c r="G3" s="191"/>
     </row>
     <row r="4" spans="2:10" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="196"/>
-      <c r="G4" s="200"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
+      <c r="G4" s="194"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
@@ -3154,7 +3151,7 @@
       </c>
       <c r="E11" s="171">
         <f>'Research data'!G7</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="121"/>
@@ -3257,17 +3254,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -3282,7 +3279,7 @@
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
-      <c r="E2" s="188"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
@@ -3290,15 +3287,15 @@
       <c r="B3" s="189"/>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
-      <c r="E3" s="191"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="36"/>
       <c r="G3" s="148"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="192"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="194"/>
+      <c r="B4" s="197"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="198"/>
+      <c r="E4" s="199"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3368,7 +3365,7 @@
     <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41"/>
       <c r="C11" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" s="121"/>
       <c r="E11" s="121"/>
@@ -3513,7 +3510,7 @@
     <row r="18" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="41"/>
       <c r="C18" s="185" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>47</v>
@@ -3528,7 +3525,7 @@
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J18" s="108"/>
     </row>
@@ -3546,7 +3543,7 @@
     <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="121"/>
       <c r="E20" s="121"/>
@@ -3691,7 +3688,7 @@
     <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="41"/>
       <c r="C27" s="185" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>47</v>
@@ -3705,7 +3702,7 @@
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J27" s="108"/>
     </row>
@@ -3723,7 +3720,7 @@
     <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41"/>
       <c r="C29" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="121"/>
       <c r="E29" s="121"/>
@@ -3868,7 +3865,7 @@
     <row r="36" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="41"/>
       <c r="C36" s="185" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>47</v>
@@ -3882,7 +3879,7 @@
       </c>
       <c r="H36" s="37"/>
       <c r="I36" s="184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J36" s="108"/>
     </row>
@@ -3900,7 +3897,7 @@
     <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="41"/>
       <c r="C38" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D38" s="121"/>
       <c r="E38" s="121"/>
@@ -4045,7 +4042,7 @@
     <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="41"/>
       <c r="C45" s="185" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>47</v>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="184" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J45" s="108"/>
     </row>
@@ -4108,21 +4105,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="67" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="67" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="67" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="67" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="67" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="67" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="68" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="67" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="67" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="67" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="67" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="68" customWidth="1"/>
     <col min="10" max="10" width="3" style="68" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" style="68" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" style="68" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="68" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="68" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="68" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="68" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="68" customWidth="1"/>
     <col min="15" max="15" width="60" style="67" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="67"/>
+    <col min="16" max="16384" width="10.83203125" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4250,7 +4247,7 @@
       </c>
       <c r="G7" s="165">
         <f>M7</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4259,7 +4256,7 @@
       <c r="L7" s="18"/>
       <c r="M7" s="164">
         <f>Notes!G108</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="131"/>
@@ -4353,7 +4350,7 @@
       <c r="M10" s="16"/>
       <c r="N10" s="16"/>
       <c r="O10" s="182" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.2">
@@ -5461,23 +5458,23 @@
   </sheetPr>
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="49"/>
+    <col min="7" max="7" width="10.33203125" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5666,16 +5663,16 @@
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="66">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J13" s="163">
         <v>42419</v>
       </c>
       <c r="K13" s="64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L13" s="136" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
@@ -5694,18 +5691,18 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AI147"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="115" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="115" customWidth="1"/>
     <col min="2" max="2" width="5" style="115" customWidth="1"/>
     <col min="3" max="4" width="7" style="115"/>
-    <col min="5" max="5" width="11.42578125" style="115" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="115" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="115" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="115" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="115" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="115" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="7" style="115"/>
     <col min="12" max="12" width="10" style="115" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="7" style="115"/>
@@ -6458,7 +6455,7 @@
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -6497,7 +6494,7 @@
         <v>56.4</v>
       </c>
       <c r="G44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8145,7 +8142,7 @@
       <c r="A98"/>
       <c r="B98" s="116"/>
       <c r="C98" s="136" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D98" s="128"/>
       <c r="E98" s="128"/>
@@ -8357,8 +8354,8 @@
       <c r="B105" s="116"/>
       <c r="C105" s="174"/>
       <c r="D105" s="174"/>
-      <c r="F105" s="170" t="s">
-        <v>96</v>
+      <c r="F105" s="201" t="s">
+        <v>109</v>
       </c>
       <c r="L105" s="168"/>
       <c r="M105" s="167"/>
@@ -8407,7 +8404,7 @@
       <c r="C107" s="128"/>
       <c r="D107" s="128"/>
       <c r="G107" s="115">
-        <v>13.5</v>
+        <v>18.25</v>
       </c>
       <c r="H107" s="170" t="s">
         <v>94</v>
@@ -8437,7 +8434,7 @@
       <c r="D108" s="174"/>
       <c r="G108" s="115">
         <f>G107/3600</f>
-        <v>3.7499999999999999E-3</v>
+        <v>5.0694444444444441E-3</v>
       </c>
       <c r="H108" s="170" t="s">
         <v>95</v>
@@ -9581,13 +9578,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.28515625" customWidth="1"/>
+    <col min="1" max="2" width="3.33203125" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="7" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="55" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" s="155" customFormat="1" x14ac:dyDescent="0.2">
@@ -9602,7 +9599,7 @@
       </c>
       <c r="C2" s="187"/>
       <c r="D2" s="187"/>
-      <c r="E2" s="188"/>
+      <c r="E2" s="195"/>
       <c r="F2" s="156"/>
       <c r="G2" s="156"/>
     </row>
@@ -9610,15 +9607,15 @@
       <c r="B3" s="189"/>
       <c r="C3" s="190"/>
       <c r="D3" s="190"/>
-      <c r="E3" s="191"/>
+      <c r="E3" s="196"/>
       <c r="F3" s="156"/>
       <c r="G3" s="156"/>
     </row>
     <row r="4" spans="2:9" s="155" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="195"/>
-      <c r="C4" s="196"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="197"/>
+      <c r="B4" s="192"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="156"/>
       <c r="G4" s="156"/>
     </row>
